--- a/data/hotels_by_city/Denver/Denver_shard_275.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_275.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="335">
   <si>
     <t>STR#</t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g33524-d125849-Reviews-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
   </si>
   <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Denver-Hotels-Towneplace-Suites-By-Marriott-Denver-Southwest.h484860.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +145,882 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/05/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d125849-r571511144-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>33524</t>
+  </si>
+  <si>
+    <t>125849</t>
+  </si>
+  <si>
+    <t>571511144</t>
+  </si>
+  <si>
+    <t>04/06/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice hotel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beautiful scenery for a nice room view. Hotel staff was friendly and helpful during checkin &amp; helped with suggesting local restaurants. Rooms were very clean,  accommodating &amp; fully equipped. The free breakfast was hot &amp; fresh. </t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d125849-r557589166-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>557589166</t>
+  </si>
+  <si>
+    <t>01/31/2018</t>
+  </si>
+  <si>
+    <t>Business and Personal Long-Term Stay Hotel with Exceptional Staff</t>
+  </si>
+  <si>
+    <t>I have had the pleasure of staying at this Marriott property for many days in Dec 2017 and Jan 2018 with a focus on having a quiet, clean environment within which to develop business documentation and deliver business webinars. This property is a great value for the price or points. I love this location and have made it my #1 go-to hotel for both business and personal reasons. Every staff member goes above and beyond to put customers first and ensure you can be productive, get good rest, and enjoy your visit. This includes accommodating specific needs and last-minute requests. For example, I had a need for "absolute quiet" during business hours in order to work 12+-hour days to fulfill work requirements. The staff helped me find the appropriate building and room, which enabled me to achieve my work objectives while thoroughly enjoying the environment, because of the views and ability to open the windows. Staff members in every area of the business consistently communicated with me in a way that made me feel truly valued (front desk, kitchen, engineering and maintenance, housekeeping, management). They are the best Marriott crew I've had the privilege to get to know, and I've known hundreds of hotel teams worldwide over the past 20 years of business and personal travels. While the hotel interior is dated in terms of décor, it is well-maintained and clean, and the amenities are great, if you need a...I have had the pleasure of staying at this Marriott property for many days in Dec 2017 and Jan 2018 with a focus on having a quiet, clean environment within which to develop business documentation and deliver business webinars. This property is a great value for the price or points. I love this location and have made it my #1 go-to hotel for both business and personal reasons. Every staff member goes above and beyond to put customers first and ensure you can be productive, get good rest, and enjoy your visit. This includes accommodating specific needs and last-minute requests. For example, I had a need for "absolute quiet" during business hours in order to work 12+-hour days to fulfill work requirements. The staff helped me find the appropriate building and room, which enabled me to achieve my work objectives while thoroughly enjoying the environment, because of the views and ability to open the windows. Staff members in every area of the business consistently communicated with me in a way that made me feel truly valued (front desk, kitchen, engineering and maintenance, housekeeping, management). They are the best Marriott crew I've had the privilege to get to know, and I've known hundreds of hotel teams worldwide over the past 20 years of business and personal travels. While the hotel interior is dated in terms of décor, it is well-maintained and clean, and the amenities are great, if you need a "home away from home" for an extended period. This is a pet-friendly property, but the staff does it best to consider no-pet customers, re: quiet. Also, stains, odor, and other visible signs of wear/tear are well-managed, so while you can tell this is an older property, it's comfortable and pleasant even for a clean freak like me. The physical location of the property is terrific for anyone looking for peace and quiet as well as access to the western C-470 and I-70 corridors into the mountains. Even with C-470 construction (Dec 2017 to present), you can get to the I-25 corridor within 15 to 20 minutes, which is another plus for business travelers commuting into the Denver Tech Center (DTC). Additionally, there are several casual restaurants, fast-food places, and shopping nearby (e.g., Kohl's, Walmart, Best Buy, etc.). I prefer long-stay properties with kitchens like Marriott TownePlace Suites and Residence Inns or Hilton Homewood Suites or Home2Suites, because I like to prepare my own meals. There are two King Soopers' grocery stores within a few minutes of this location. Complimentary breakfasts that are on par with other Marriott properties (e.g., protein, carbs, and sweet treats) and there's a nice outdoor grilling/sitting area available. To conclude, I enthusiastically recommend this property and look forward to returning in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>I have had the pleasure of staying at this Marriott property for many days in Dec 2017 and Jan 2018 with a focus on having a quiet, clean environment within which to develop business documentation and deliver business webinars. This property is a great value for the price or points. I love this location and have made it my #1 go-to hotel for both business and personal reasons. Every staff member goes above and beyond to put customers first and ensure you can be productive, get good rest, and enjoy your visit. This includes accommodating specific needs and last-minute requests. For example, I had a need for "absolute quiet" during business hours in order to work 12+-hour days to fulfill work requirements. The staff helped me find the appropriate building and room, which enabled me to achieve my work objectives while thoroughly enjoying the environment, because of the views and ability to open the windows. Staff members in every area of the business consistently communicated with me in a way that made me feel truly valued (front desk, kitchen, engineering and maintenance, housekeeping, management). They are the best Marriott crew I've had the privilege to get to know, and I've known hundreds of hotel teams worldwide over the past 20 years of business and personal travels. While the hotel interior is dated in terms of décor, it is well-maintained and clean, and the amenities are great, if you need a...I have had the pleasure of staying at this Marriott property for many days in Dec 2017 and Jan 2018 with a focus on having a quiet, clean environment within which to develop business documentation and deliver business webinars. This property is a great value for the price or points. I love this location and have made it my #1 go-to hotel for both business and personal reasons. Every staff member goes above and beyond to put customers first and ensure you can be productive, get good rest, and enjoy your visit. This includes accommodating specific needs and last-minute requests. For example, I had a need for "absolute quiet" during business hours in order to work 12+-hour days to fulfill work requirements. The staff helped me find the appropriate building and room, which enabled me to achieve my work objectives while thoroughly enjoying the environment, because of the views and ability to open the windows. Staff members in every area of the business consistently communicated with me in a way that made me feel truly valued (front desk, kitchen, engineering and maintenance, housekeeping, management). They are the best Marriott crew I've had the privilege to get to know, and I've known hundreds of hotel teams worldwide over the past 20 years of business and personal travels. While the hotel interior is dated in terms of décor, it is well-maintained and clean, and the amenities are great, if you need a "home away from home" for an extended period. This is a pet-friendly property, but the staff does it best to consider no-pet customers, re: quiet. Also, stains, odor, and other visible signs of wear/tear are well-managed, so while you can tell this is an older property, it's comfortable and pleasant even for a clean freak like me. The physical location of the property is terrific for anyone looking for peace and quiet as well as access to the western C-470 and I-70 corridors into the mountains. Even with C-470 construction (Dec 2017 to present), you can get to the I-25 corridor within 15 to 20 minutes, which is another plus for business travelers commuting into the Denver Tech Center (DTC). Additionally, there are several casual restaurants, fast-food places, and shopping nearby (e.g., Kohl's, Walmart, Best Buy, etc.). I prefer long-stay properties with kitchens like Marriott TownePlace Suites and Residence Inns or Hilton Homewood Suites or Home2Suites, because I like to prepare my own meals. There are two King Soopers' grocery stores within a few minutes of this location. Complimentary breakfasts that are on par with other Marriott properties (e.g., protein, carbs, and sweet treats) and there's a nice outdoor grilling/sitting area available. To conclude, I enthusiastically recommend this property and look forward to returning in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d125849-r548944224-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>548944224</t>
+  </si>
+  <si>
+    <t>12/23/2017</t>
+  </si>
+  <si>
+    <t>Superb Staff!</t>
+  </si>
+  <si>
+    <t>Stayed at this location while visiting family, and it has great prices for what you get out of your stay. The staff i have encountered are incredibly helpful and kind. Clean rooms, kitchenettes, great location just off 470, and again THE GREATEST STAFF!</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d125849-r532336779-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>532336779</t>
+  </si>
+  <si>
+    <t>10/12/2017</t>
+  </si>
+  <si>
+    <t>always a great stay &amp; great free breakfast</t>
+  </si>
+  <si>
+    <t>Always a great stay. This hotels is in a business area. About a mile away (under E-470) there are tons of eating places and a full-scale grocery store. TownePlaces have a full kitchen, stocked with cooking and eating utensils, also a dishwasher (so you know the dishes are actually clean). Quiet location, really good free breakfast, and great coffee. Look forward to my return.</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d125849-r529741067-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>529741067</t>
+  </si>
+  <si>
+    <t>10/03/2017</t>
+  </si>
+  <si>
+    <t>Great Location But Poor Cleaning</t>
+  </si>
+  <si>
+    <t>This was an easy place to get to, well located and nice looking, but we were surprised by a few things in the room.  This is an extended stay motel with a kitchen. The kitchen was not clean. The cabinets needed wiping, the microwave and oven were dirty.  Also one of the lights at the entry needed a new bulb. They had one chance to make an impression.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d125849-r529201432-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>529201432</t>
+  </si>
+  <si>
+    <t>10/02/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice place. Location questionable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is a nice place to stay. Good staff. Had a typical Continental breakfast. On the weekends they have biscuits and gravy with meat. Except for what’s in the gravy there is no other meat options. So lots of carbs! For me the location is the disadvantaged. It had a Littleton address, which for me caused me to be deceived as to where it was located. It is off of C470 and Kipling. It sits at the foothills </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d125849-r507211115-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>507211115</t>
+  </si>
+  <si>
+    <t>07/30/2017</t>
+  </si>
+  <si>
+    <t>Overnight Stay</t>
+  </si>
+  <si>
+    <t>Close to freeway and convenience stores.  Clean room, comfy bed. Staff was friendly  We only needed an overnight stay so we thought price for room was high.  Probably wouldn't stay again because of that.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d125849-r505880849-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>505880849</t>
+  </si>
+  <si>
+    <t>07/26/2017</t>
+  </si>
+  <si>
+    <t>Very comfortable</t>
+  </si>
+  <si>
+    <t>The room has a comfortable bed, sofa bed and full kitchen.  Seems a bit tight, but they do have to fit a lot in the room.  The breakfast was good and grocery store, places to eat and highway are close by.  Very quiet location with mountain views. Though I did not have a mountain view from our room.  Very small outdoor pool with not much space around for lounging.  Only problem was our room card would have to be fixed on a daily basis.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d125849-r500571704-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>500571704</t>
+  </si>
+  <si>
+    <t>07/10/2017</t>
+  </si>
+  <si>
+    <t>Best place for the value.</t>
+  </si>
+  <si>
+    <t>This is the 3rd time I have stayed at this hotel.  The staff was very friendly and accommodating.  I was upgraded to a 2 bedroom suite at no extra charge because I needed two beds.  I had a nice view of the foothills.  The rooms are clean and well maintained.  This hotel is conveniently located right off Highway 470 which is the outer loop of the Denver area.  The hotel is literally 2 minutes from being on The highway.  Easy commute to all attractions, about 20 minutes from the airport."  There is a nice park, South Valley Park right around the corner and the hotel is close to Morrison and the Red Rock amphitheater.  The hotel only has an outdoor pool, but I am not a pool person.  However plenty of people were using it.  Breakfast is served everyday for free with waffles, eggs and basic continental type fixings.  Staff is very helpful and go out of their way to help.  For the value, this is a great hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is the 3rd time I have stayed at this hotel.  The staff was very friendly and accommodating.  I was upgraded to a 2 bedroom suite at no extra charge because I needed two beds.  I had a nice view of the foothills.  The rooms are clean and well maintained.  This hotel is conveniently located right off Highway 470 which is the outer loop of the Denver area.  The hotel is literally 2 minutes from being on The highway.  Easy commute to all attractions, about 20 minutes from the airport."  There is a nice park, South Valley Park right around the corner and the hotel is close to Morrison and the Red Rock amphitheater.  The hotel only has an outdoor pool, but I am not a pool person.  However plenty of people were using it.  Breakfast is served everyday for free with waffles, eggs and basic continental type fixings.  Staff is very helpful and go out of their way to help.  For the value, this is a great hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d125849-r492277874-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>492277874</t>
+  </si>
+  <si>
+    <t>06/11/2017</t>
+  </si>
+  <si>
+    <t>Very convenient location across the freeway from Ken Caryl Ranch where my Sister lives.</t>
+  </si>
+  <si>
+    <t>We were impressed by the lovely suite which included a couch, kitchenette and nice bathroom. We overlooked the pool and on our 3rd day we came back after lunch to a jackhammer next to the pool where they were creating a BBQ area.  Our intent was to take a nap before my Mom's 90th Birthday dinner.  When we mentioned the noise to the front desk, they had the work stopped.  The only downside to the room was the noisy AC unit right next to the bed.  The three night rate seemed a little steep.</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d125849-r470712817-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>470712817</t>
+  </si>
+  <si>
+    <t>03/27/2017</t>
+  </si>
+  <si>
+    <t>Excellent, recommend to anyone</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel in August, and would recommend to anyone. Guest services was very accommodating and helpful since we were from out of state. Rooms were clean very spacious, and views are amazing. Easy on and off just outside of Denver. Nobody seem to use the outdoor pool even though the weather was awesome. Breakfast had plenty of options. My only suggestion would be to extend the pool hours with possibly an outdoor light. Coming from out of state and they're not being an indoor pool, the use of the pool is limited due to daylight. If there were pool lights I would recommend allowing the pool open a little later since the temperature of the pool is nice even when the air is slightly cooler.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel in August, and would recommend to anyone. Guest services was very accommodating and helpful since we were from out of state. Rooms were clean very spacious, and views are amazing. Easy on and off just outside of Denver. Nobody seem to use the outdoor pool even though the weather was awesome. Breakfast had plenty of options. My only suggestion would be to extend the pool hours with possibly an outdoor light. Coming from out of state and they're not being an indoor pool, the use of the pool is limited due to daylight. If there were pool lights I would recommend allowing the pool open a little later since the temperature of the pool is nice even when the air is slightly cooler.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d125849-r453907201-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>453907201</t>
+  </si>
+  <si>
+    <t>01/21/2017</t>
+  </si>
+  <si>
+    <t>Family friendly</t>
+  </si>
+  <si>
+    <t>Amazing hotel with amenities similar to an apartment. I loved buying groceries and preparing my own meal.My tip would be to rent a car as well and or use the outdoors for hiking. We were there for 4 days attending a wedding at the Manor House close by.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d125849-r437823241-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>437823241</t>
+  </si>
+  <si>
+    <t>11/16/2016</t>
+  </si>
+  <si>
+    <t>Quiet setting - Better views</t>
+  </si>
+  <si>
+    <t>I spent a month there and the single room is functional for its size. The third floor offers better views of the mountain range and toward open areas not yet developed. The staff is very helpful ~ just ask. The gym is small with little free weights but several cardio pieces and there is a coin op laundry room.  All in all, its a nice place to crash at the end of the day.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d125849-r425468406-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>425468406</t>
+  </si>
+  <si>
+    <t>10/05/2016</t>
+  </si>
+  <si>
+    <t>Clean &amp; Quite</t>
+  </si>
+  <si>
+    <t>A nice clean and quite hotel. The staff were very friendly and helpful. The ADA room was large and easy to get around in. The breakfast was good with a nice selection of food. Easy access at the end of Kipling and I-470.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d125849-r422266492-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>422266492</t>
+  </si>
+  <si>
+    <t>09/25/2016</t>
+  </si>
+  <si>
+    <t>Great Hotel in Littleton Colorado</t>
+  </si>
+  <si>
+    <t>Our suite was clean and comfy!!!  The staff was extremely friendly and helpful.   I loved the selections at breakfast some great healthy options.  Great location for my visit to see friends.  Will stay here again on my next visit.</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d125849-r396445076-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>396445076</t>
+  </si>
+  <si>
+    <t>07/24/2016</t>
+  </si>
+  <si>
+    <t>Out of the way</t>
+  </si>
+  <si>
+    <t>This hotel was nice and was an average Towne Place Suites. It is just located in an area without anything else so you have to drive to get anything. Could use some updating but it was clean and the staff was friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>TPSbyMarriott, Manager at TownePlace Suites Denver Southwest/Littleton, responded to this reviewResponded July 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 26, 2016</t>
+  </si>
+  <si>
+    <t>This hotel was nice and was an average Towne Place Suites. It is just located in an area without anything else so you have to drive to get anything. Could use some updating but it was clean and the staff was friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d125849-r389434930-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>389434930</t>
+  </si>
+  <si>
+    <t>07/05/2016</t>
+  </si>
+  <si>
+    <t>Very nice hotel for business or personal travel</t>
+  </si>
+  <si>
+    <t>I stayed at TownePlace Suites on a business trip and the room was very spacious, clean and nice staff.  The breakfast was very good and the they had a great little "lobby shop" should you find yourself in the need for something sweet or perhaps you forgotten to pack an essential item or two.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d125849-r389400446-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>389400446</t>
+  </si>
+  <si>
+    <t>2 bedroom is a good family size, there weresome issues.</t>
+  </si>
+  <si>
+    <t>First upon arrival you notice the nice backdrop of the hogbacks (where the mountains start). Pulling up you enter and see the pool. It is dinky but clean. The hotel has 3 stories. I recommend highest floor possible. Thin walls big time. The staff is very friendly. They offer a free breakfast in the morning. Basic sausage, eggs that are squished to make a sandwich out of, cereal, waffle maker, doughnuts and bagels. The later you go, they run out of everything. Since we had a kitchen I went super early and stored the food in our kitchen. One day no food except waffles and a few bagels left. The milk was frozen they said so you couldn't even have cereal. (I found someone to ask about the milk). They had no signs out to let you know if they would refill so you didn't know to wait or leave. One night was awful. A car alarm would sporadically go off and when we called the front desk they were unaware and offered nothing. Even a simple let me see if I can do something or I'm sorry, anything. Alt why said was "okay". Customers had to call the police themselves. Unfortunately to know avail, so we had no sleep all night and the staff dis not say a word to anyone. An apology would of been nice at the very least. I mentioned it to the new staff in...First upon arrival you notice the nice backdrop of the hogbacks (where the mountains start). Pulling up you enter and see the pool. It is dinky but clean. The hotel has 3 stories. I recommend highest floor possible. Thin walls big time. The staff is very friendly. They offer a free breakfast in the morning. Basic sausage, eggs that are squished to make a sandwich out of, cereal, waffle maker, doughnuts and bagels. The later you go, they run out of everything. Since we had a kitchen I went super early and stored the food in our kitchen. One day no food except waffles and a few bagels left. The milk was frozen they said so you couldn't even have cereal. (I found someone to ask about the milk). They had no signs out to let you know if they would refill so you didn't know to wait or leave. One night was awful. A car alarm would sporadically go off and when we called the front desk they were unaware and offered nothing. Even a simple let me see if I can do something or I'm sorry, anything. Alt why said was "okay". Customers had to call the police themselves. Unfortunately to know avail, so we had no sleep all night and the staff dis not say a word to anyone. An apology would of been nice at the very least. I mentioned it to the new staff in the morning and they said "oh yeah we heard about that" and laughed it off, super irritating. The room we stayed in was a 2 bedroom. Kitchen was fully equipped. Recommend going to the grocery store and stocking up. The a/c unit is super loud. Ask for extra shampoo. With a 2 bedroom you know the staff knows a few people are staying in it and they give you one dinky bottle of each item. I liked the room but with the hiccups that they did not address at all I'm not sure I would stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>TPSbyMarriott, Manager at TownePlace Suites Denver Southwest/Littleton, responded to this reviewResponded July 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 6, 2016</t>
+  </si>
+  <si>
+    <t>First upon arrival you notice the nice backdrop of the hogbacks (where the mountains start). Pulling up you enter and see the pool. It is dinky but clean. The hotel has 3 stories. I recommend highest floor possible. Thin walls big time. The staff is very friendly. They offer a free breakfast in the morning. Basic sausage, eggs that are squished to make a sandwich out of, cereal, waffle maker, doughnuts and bagels. The later you go, they run out of everything. Since we had a kitchen I went super early and stored the food in our kitchen. One day no food except waffles and a few bagels left. The milk was frozen they said so you couldn't even have cereal. (I found someone to ask about the milk). They had no signs out to let you know if they would refill so you didn't know to wait or leave. One night was awful. A car alarm would sporadically go off and when we called the front desk they were unaware and offered nothing. Even a simple let me see if I can do something or I'm sorry, anything. Alt why said was "okay". Customers had to call the police themselves. Unfortunately to know avail, so we had no sleep all night and the staff dis not say a word to anyone. An apology would of been nice at the very least. I mentioned it to the new staff in...First upon arrival you notice the nice backdrop of the hogbacks (where the mountains start). Pulling up you enter and see the pool. It is dinky but clean. The hotel has 3 stories. I recommend highest floor possible. Thin walls big time. The staff is very friendly. They offer a free breakfast in the morning. Basic sausage, eggs that are squished to make a sandwich out of, cereal, waffle maker, doughnuts and bagels. The later you go, they run out of everything. Since we had a kitchen I went super early and stored the food in our kitchen. One day no food except waffles and a few bagels left. The milk was frozen they said so you couldn't even have cereal. (I found someone to ask about the milk). They had no signs out to let you know if they would refill so you didn't know to wait or leave. One night was awful. A car alarm would sporadically go off and when we called the front desk they were unaware and offered nothing. Even a simple let me see if I can do something or I'm sorry, anything. Alt why said was "okay". Customers had to call the police themselves. Unfortunately to know avail, so we had no sleep all night and the staff dis not say a word to anyone. An apology would of been nice at the very least. I mentioned it to the new staff in the morning and they said "oh yeah we heard about that" and laughed it off, super irritating. The room we stayed in was a 2 bedroom. Kitchen was fully equipped. Recommend going to the grocery store and stocking up. The a/c unit is super loud. Ask for extra shampoo. With a 2 bedroom you know the staff knows a few people are staying in it and they give you one dinky bottle of each item. I liked the room but with the hiccups that they did not address at all I'm not sure I would stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d125849-r380568546-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>380568546</t>
+  </si>
+  <si>
+    <t>06/07/2016</t>
+  </si>
+  <si>
+    <t>Just ok. Friendly staff, bad breakfast.</t>
+  </si>
+  <si>
+    <t>Rooms were ok, will have everything you need, except the only ice was a separate building. Breakfast was never stocked, no fresh fruit, little variety. The hallways smelled like pet shampoo probably to cover the odor of pet stains. It didn't bother us but may some especially if you have allergies. It was a pretty strong smell. Front desk staff were very sweet and accommodating to us and our three kids which was much appreciated.MoreShow less</t>
+  </si>
+  <si>
+    <t>TPSbyMarriott, Manager at TownePlace Suites Denver Southwest/Littleton, responded to this reviewResponded June 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 9, 2016</t>
+  </si>
+  <si>
+    <t>Rooms were ok, will have everything you need, except the only ice was a separate building. Breakfast was never stocked, no fresh fruit, little variety. The hallways smelled like pet shampoo probably to cover the odor of pet stains. It didn't bother us but may some especially if you have allergies. It was a pretty strong smell. Front desk staff were very sweet and accommodating to us and our three kids which was much appreciated.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d125849-r380028818-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>380028818</t>
+  </si>
+  <si>
+    <t>06/05/2016</t>
+  </si>
+  <si>
+    <t>Great stay and pet friendly!</t>
+  </si>
+  <si>
+    <t>My wife and I stayed 6 nights at this Marriott hotel next to the foothills SW of Denver.  Great location away from the congestion that is Denver today.  Large fields next to the hotel to exercise dogs, plenty of good restaurants a 5-minute drive away, friendly staff, nice breakfast and pleasant rooms.  Free parking.  I highly recommend this hotel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d125849-r365243202-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>365243202</t>
+  </si>
+  <si>
+    <t>04/18/2016</t>
+  </si>
+  <si>
+    <t>Very nice hotel</t>
+  </si>
+  <si>
+    <t>I was pleasantly surprised by this hotel.  The support staff was very helpful. The room was clean. While it was a bit noisier than I would have liked, overall a very decent place to stay. I did find the placement of the television to be odd, as it was in a position that made me wonder where one was to sit to watch. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>TPSbyMarriott, Manager at TownePlace Suites Denver Southwest/Littleton, responded to this reviewResponded April 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 21, 2016</t>
+  </si>
+  <si>
+    <t>I was pleasantly surprised by this hotel.  The support staff was very helpful. The room was clean. While it was a bit noisier than I would have liked, overall a very decent place to stay. I did find the placement of the television to be odd, as it was in a position that made me wonder where one was to sit to watch. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d125849-r351819876-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>351819876</t>
+  </si>
+  <si>
+    <t>02/29/2016</t>
+  </si>
+  <si>
+    <t>Away from city</t>
+  </si>
+  <si>
+    <t>Good place to stay away from the city surroundings and good launching point for outdoor activities or a quick visit to Red Rocks. Many great places to eat with in a short drive away. Ski rental shop just around the corner.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>TPSbyMarriott, Manager at TownePlace Suites Denver Southwest/Littleton, responded to this reviewResponded March 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 2, 2016</t>
+  </si>
+  <si>
+    <t>Good place to stay away from the city surroundings and good launching point for outdoor activities or a quick visit to Red Rocks. Many great places to eat with in a short drive away. Ski rental shop just around the corner.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d125849-r330602492-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>330602492</t>
+  </si>
+  <si>
+    <t>12/03/2015</t>
+  </si>
+  <si>
+    <t>Friendly, comfortable stay</t>
+  </si>
+  <si>
+    <t>I have stayed at the TownePlace Suites twice in the past two months. It is clean and comfortable as you would expect of a three-star hotel. What stands out is the friendliness and hospitality of the staff. In my most recent visit I was greeted warmly and presented with a welcome gift of a bag of candies. Every night thereafter, when I returned to my room, I found a new goodie bag waiting for me with a hand-written note. I truly appreciated the personalized treatment!</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d125849-r327883079-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>327883079</t>
+  </si>
+  <si>
+    <t>11/19/2015</t>
+  </si>
+  <si>
+    <t>Quiet, Comfortable and great customer service</t>
+  </si>
+  <si>
+    <t>The hotel is just far enough off the beaten path to be quiet but close enough to shopping and restaurants that make it a great place to stay. The customer service was excellent and all the staff were very helpful.</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d125849-r288702553-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>288702553</t>
+  </si>
+  <si>
+    <t>07/13/2015</t>
+  </si>
+  <si>
+    <t>Twinkle Twinkle Little Star</t>
+  </si>
+  <si>
+    <t>I am a repeat customer, to this location. It is on a quiet street and away from road traffic. It is close enough to stores and restaurants to be quite convenient and a quick hop on the freeway. The staff and management aim to please. The rooms are clean and comfortable. You can see the stars at night! Lovely stay!</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d125849-r278999639-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>278999639</t>
+  </si>
+  <si>
+    <t>06/09/2015</t>
+  </si>
+  <si>
+    <t>Quiet corner of Denver</t>
+  </si>
+  <si>
+    <t>This hotel was about 30 minutes from downtown Denver but it was well worth the trip. It is located on the very edge of the foothills, with beautiful views and a quiet atmosphere.  The hotel and rooms were immaculate.  The suite had everything you would need for a night or a month.  We had a full kitchen and desk space, complete with pots and pans.  The staff was very pleasant.  The breakfast, while basic, was very much appreciated.  I will definitely be staying here again.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d125849-r278383765-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>278383765</t>
+  </si>
+  <si>
+    <t>06/06/2015</t>
+  </si>
+  <si>
+    <t>A Solid Place to Spend a Day or Two</t>
+  </si>
+  <si>
+    <t>This hotel is in better shape than the last TPS I stayed in.  They have cookies every evening around 1700 and I was informed of this fact at check in which I thought was nice.  Sometimes hotels never mention they will have cookies later.  Our room was the typical TPS layout and we opted for a studio which I prefer as they feel roomier.  The room had a recycle bin.  Our room was fine and the layout good; I always like the studio suite concept as it gives room to spread out.  There are no luggage racks as they expect you to unpack and place your items in drawers.  I never do that so I wish the “extended stay” hotels had luggage racks.  I laid my suitcase on the kitchen counter.  They had a tray for your laptop beside the sofa that was appreciated.  The bed slept OK but they could use a thicken mattress pad.  Everything seemed clean enough.Breakfast was as expected for a Towneplace Suites.  It is closer to continental than most but they did have hot oatmeal and a waffle maker.  Hard boiled eggs were also available.  I wish the coffee was bolder but I find the coffee weak in most Marriott chain hotels.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>This hotel is in better shape than the last TPS I stayed in.  They have cookies every evening around 1700 and I was informed of this fact at check in which I thought was nice.  Sometimes hotels never mention they will have cookies later.  Our room was the typical TPS layout and we opted for a studio which I prefer as they feel roomier.  The room had a recycle bin.  Our room was fine and the layout good; I always like the studio suite concept as it gives room to spread out.  There are no luggage racks as they expect you to unpack and place your items in drawers.  I never do that so I wish the “extended stay” hotels had luggage racks.  I laid my suitcase on the kitchen counter.  They had a tray for your laptop beside the sofa that was appreciated.  The bed slept OK but they could use a thicken mattress pad.  Everything seemed clean enough.Breakfast was as expected for a Towneplace Suites.  It is closer to continental than most but they did have hot oatmeal and a waffle maker.  Hard boiled eggs were also available.  I wish the coffee was bolder but I find the coffee weak in most Marriott chain hotels.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d125849-r275075757-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>275075757</t>
+  </si>
+  <si>
+    <t>05/27/2015</t>
+  </si>
+  <si>
+    <t>Loved this hotel!</t>
+  </si>
+  <si>
+    <t>To start the view is beautiful. The area is very quite and the staff goes above and beyond. My room was clean and well equipped. There was noise from the room above but no more than other hotels, and I stay in many.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d125849-r273715572-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>273715572</t>
+  </si>
+  <si>
+    <t>05/21/2015</t>
+  </si>
+  <si>
+    <t>Place to Sleep</t>
+  </si>
+  <si>
+    <t>In town for graduation and needed place to stay. Family needed place to get ready.Convenient, clean and nice rooms with kitchens.  Breakfast typical. Comfy bed. Easy access from freeway. Brother has suite that had 2 bedrooms, kitchen &amp; small living room.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d125849-r271884886-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>271884886</t>
+  </si>
+  <si>
+    <t>05/13/2015</t>
+  </si>
+  <si>
+    <t>Good Breakfast, Clean Facility</t>
+  </si>
+  <si>
+    <t>Stayed there recently for a weekend college graduation. The hotel was very clean and quiet. Breakfast was fine with several choices.  Although we had a two bedroom suite,the room was not well stocked with supplies. We had a great view of the mountains. I would def stay there again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d125849-r267032013-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>267032013</t>
+  </si>
+  <si>
+    <t>04/21/2015</t>
+  </si>
+  <si>
+    <t>Clean, comfortable, modern rooms. Great breakfast!</t>
+  </si>
+  <si>
+    <t>My fiance and I stayed at the TownePlace Suites in Littleton when we moved to Denver recently. This hotel, and especially the staff, made the whole process very pleasant. The rooms themselves are up to date and clean. The beds are very comfortable and the kitchen was very convenient and has everything you need to make simple meals. When I started my job, I would pop in for breakfast every morning and was always greeted with a friendly smile and hello. Breakfast itself was always fresh and tasty whether I wanted to grab something and go or sit down for a nice treat. The location is great as well with Red Rocks park only a few minutes away. I highly recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>My fiance and I stayed at the TownePlace Suites in Littleton when we moved to Denver recently. This hotel, and especially the staff, made the whole process very pleasant. The rooms themselves are up to date and clean. The beds are very comfortable and the kitchen was very convenient and has everything you need to make simple meals. When I started my job, I would pop in for breakfast every morning and was always greeted with a friendly smile and hello. Breakfast itself was always fresh and tasty whether I wanted to grab something and go or sit down for a nice treat. The location is great as well with Red Rocks park only a few minutes away. I highly recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d125849-r266929969-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>266929969</t>
+  </si>
+  <si>
+    <t>04/20/2015</t>
+  </si>
+  <si>
+    <t>Great location, clean and remodeled rooms, pet friendly!</t>
+  </si>
+  <si>
+    <t>We moved from Chicago to Denver and stayed at TownePlace Suites in Littleton for two weeks.  The rooms are spacious with kitchen/pots and pans and a coffee maker.  Everything was clean, new and recently remodeled.  Plus they are pet friendly for all size dogs.  There's a great grassy area for pets.  The location made it easy to go into Denver to search for a place to live/interview for jobs.  Also super close to red rocks and other great hikes for a fun weekend.  The staff were all very helpful and attentive.  Highly recommend!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d125849-r265681847-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>265681847</t>
+  </si>
+  <si>
+    <t>04/14/2015</t>
+  </si>
+  <si>
+    <t>A nice place to stay...I recommend it highly!</t>
+  </si>
+  <si>
+    <t>The staff is accomodating and friendly, the hotel has been recently remodeled, it is very clean, the area is lovely with the proximitry to the mountains. there is plenty to do nearby, particularly if you have children or like to hike, the beds are comfortable.</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d125849-r253528717-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>253528717</t>
+  </si>
+  <si>
+    <t>02/10/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Started off rough but ended as a nice visit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The first rooms had issues but the front desk clerk worked quickly to move us to a better room. The staff is very friendly and professional. Some of the nicest people we've encountered on the trip. The walls are thin but the rooms are clean, beds are comfortable, and they have a ton of pillows. The continental breakfast is decent and their hours give you plenty of time to grab a bite to eat. The view of the mountains is nice. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d125849-r242634611-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>242634611</t>
+  </si>
+  <si>
+    <t>12/02/2014</t>
+  </si>
+  <si>
+    <t>Good location, nice amenities in room, good price, thin walls / floor</t>
+  </si>
+  <si>
+    <t>Th staff was helpful and friendly.  The room was clean and in good condition.  Having a desk was helpful for work I had to complete.  Had I been there for more than 1 night, the kitchen would have come in handy, as it is over a mile to restaurants.  The price was competitive with a regular room nearby, but this had the kitchenette.  This was close to my appointments.  Parking was ample.  Free breakfast was nothing spectacular, but was adequate and plentiful.The only negative I encountered was the noise.  I could hear people on both sides of my room as if they were in the room with me.  One side was up very late and the other side was up super early.  I could also hear noise from upstairs.  As I was checking in, there was a group of guys who were obviously regulars staying there for work.  They were holding out for top floor rooms and now I know why. I'd stay there again, but would request a top floor room, and preferably on the end.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Th staff was helpful and friendly.  The room was clean and in good condition.  Having a desk was helpful for work I had to complete.  Had I been there for more than 1 night, the kitchen would have come in handy, as it is over a mile to restaurants.  The price was competitive with a regular room nearby, but this had the kitchenette.  This was close to my appointments.  Parking was ample.  Free breakfast was nothing spectacular, but was adequate and plentiful.The only negative I encountered was the noise.  I could hear people on both sides of my room as if they were in the room with me.  One side was up very late and the other side was up super early.  I could also hear noise from upstairs.  As I was checking in, there was a group of guys who were obviously regulars staying there for work.  They were holding out for top floor rooms and now I know why. I'd stay there again, but would request a top floor room, and preferably on the end.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d125849-r237377526-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>237377526</t>
+  </si>
+  <si>
+    <t>11/01/2014</t>
+  </si>
+  <si>
+    <t>Good enough</t>
+  </si>
+  <si>
+    <t>stayed thee nights while visiting family and found it to be clean, relatively updated and the staff very friendly. Location was right off the highway and the price was right. If you are looking for a 5 star hotel, this is not the place, but for convenience it worked out just fine.</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d125849-r233081994-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>233081994</t>
+  </si>
+  <si>
+    <t>10/07/2014</t>
+  </si>
+  <si>
+    <t>Clean, secure, and friendly staff, and expensive!</t>
+  </si>
+  <si>
+    <t>Clean room, good breakfast, and professional staff.  So many pillows on the bed.  Price was very high and I don't know why...nothing big was happening in the area.  Now I see way cheaper rooms.  I think I was ripped off.</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d125849-r231687385-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>231687385</t>
+  </si>
+  <si>
+    <t>09/29/2014</t>
+  </si>
+  <si>
+    <t>Awesome Stay!</t>
+  </si>
+  <si>
+    <t>I have frequented this hotel on and off for the past couple of years.  They recently renovated and from my understanding changed management.  The new management has spent a lot of money at the hotel and it shows, especially compared to the other towneplace suites in Denver which are dingy.  And the rooms are huge with new full stainless steel kitchens. The staff is absolutely wonderful....very helpful and kind.  I would definitely recommend this hotel for both business and pleasure.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d125849-r226784029-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>226784029</t>
+  </si>
+  <si>
+    <t>09/03/2014</t>
+  </si>
+  <si>
+    <t>Very good accomodations</t>
+  </si>
+  <si>
+    <t>Very comfortable accommodations. I am an Elite Marriott Member &amp; they upgraded us to a 2 BR Suite. Very courteous &amp; helpful staff. The Beds were comfortable. If I am in the area, I would love to stay there again.Sathyan ShivashankarMarriott Elite MemberMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Carla H, Front Office Manager at TownePlace Suites Denver Southwest/Littleton, responded to this reviewResponded September 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 4, 2014</t>
+  </si>
+  <si>
+    <t>Very comfortable accommodations. I am an Elite Marriott Member &amp; they upgraded us to a 2 BR Suite. Very courteous &amp; helpful staff. The Beds were comfortable. If I am in the area, I would love to stay there again.Sathyan ShivashankarMarriott Elite MemberMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d125849-r220127387-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>220127387</t>
+  </si>
+  <si>
+    <t>08/06/2014</t>
+  </si>
+  <si>
+    <t>Nice Stay</t>
+  </si>
+  <si>
+    <t>We stayed here overnight and were very pleased with our stay. We had a 2 bedroom suite and the rooms were clean and comfortable. The hotel staff was very professional and friendly. The area is very nice and away from it all. I have no complaints about the room. As far as the breakfast goes I did not eat anything and opted for a cup of coffee, our daughter had a bagel and my husband ate a waffle. It would have been nice if they offered more fruit besides apples. Overall, our experience was really great and I would stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Carla H, Manager at TownePlace Suites Denver Southwest/Littleton, responded to this reviewResponded September 4, 2014</t>
+  </si>
+  <si>
+    <t>We stayed here overnight and were very pleased with our stay. We had a 2 bedroom suite and the rooms were clean and comfortable. The hotel staff was very professional and friendly. The area is very nice and away from it all. I have no complaints about the room. As far as the breakfast goes I did not eat anything and opted for a cup of coffee, our daughter had a bagel and my husband ate a waffle. It would have been nice if they offered more fruit besides apples. Overall, our experience was really great and I would stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d125849-r214692409-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>214692409</t>
+  </si>
+  <si>
+    <t>07/10/2014</t>
+  </si>
+  <si>
+    <t>Clean and comfortable!</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel the entire week of the 4th of July and had a wonderful experience.  We loved the views of the state parks from our room!  On the 4th we saw several hot air balloons launch over the lake which was beautiful.The room we had was clean, the bed was very comfortable and the kitchen was well equipped for our needs.  The staff was very friendly and helpful. The only reason I gave it 4 stars instead of 5 was because the breakfast seemed to be quite lacking.  I do believe some effort has been made to improve it with the addition of some hot items, but they weren't that good.  It is a free breakfast and I did eat... so I can't complain too much, but I would love to see a little more variety by my next visit.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel the entire week of the 4th of July and had a wonderful experience.  We loved the views of the state parks from our room!  On the 4th we saw several hot air balloons launch over the lake which was beautiful.The room we had was clean, the bed was very comfortable and the kitchen was well equipped for our needs.  The staff was very friendly and helpful. The only reason I gave it 4 stars instead of 5 was because the breakfast seemed to be quite lacking.  I do believe some effort has been made to improve it with the addition of some hot items, but they weren't that good.  It is a free breakfast and I did eat... so I can't complain too much, but I would love to see a little more variety by my next visit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d125849-r213821416-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>213821416</t>
+  </si>
+  <si>
+    <t>07/05/2014</t>
+  </si>
+  <si>
+    <t>All star staff</t>
+  </si>
+  <si>
+    <t>Wonderful staff from check in to check out!  Which makes a huge impression on our first visit.  Room was comfortable for family of 3.  The bed was comfortable. The views are amazing around the hotel.  Convenient to 470 - about a 20 minute drive to I-25.  Very pleased with our stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Wonderful staff from check in to check out!  Which makes a huge impression on our first visit.  Room was comfortable for family of 3.  The bed was comfortable. The views are amazing around the hotel.  Convenient to 470 - about a 20 minute drive to I-25.  Very pleased with our stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d125849-r207957216-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>207957216</t>
+  </si>
+  <si>
+    <t>05/29/2014</t>
+  </si>
+  <si>
+    <t>My Go To for Business Travel</t>
+  </si>
+  <si>
+    <t>I stay here regularly on travel. Many people stay for longer periods but I like the kitchenette amenities for my 3-4 night stays because I can cook in or easily do leftovers from take out. Rooms are comfortable to me. Staff is very friendly. Breakfast is ok (used to be a bit better) but is completely adequate. There are often cookies in the evening. Free wifi and good tv. I like the room layout.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>I stay here regularly on travel. Many people stay for longer periods but I like the kitchenette amenities for my 3-4 night stays because I can cook in or easily do leftovers from take out. Rooms are comfortable to me. Staff is very friendly. Breakfast is ok (used to be a bit better) but is completely adequate. There are often cookies in the evening. Free wifi and good tv. I like the room layout.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d125849-r206094566-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>206094566</t>
+  </si>
+  <si>
+    <t>05/18/2014</t>
+  </si>
+  <si>
+    <t>Clean room,Friendly staff</t>
+  </si>
+  <si>
+    <t>I stayed here on buisness for the third time ...consistant friendly staff...clean room.Updated rooms with wifi and or connected line.Nice desk area with an efficient and well stocked "kitchen"...even had an oven.Quiet area with nice views...stay on the third floor .MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>I stayed here on buisness for the third time ...consistant friendly staff...clean room.Updated rooms with wifi and or connected line.Nice desk area with an efficient and well stocked "kitchen"...even had an oven.Quiet area with nice views...stay on the third floor .More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d125849-r204514561-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>204514561</t>
+  </si>
+  <si>
+    <t>05/07/2014</t>
+  </si>
+  <si>
+    <t>Friendly staff, good clean hotel</t>
+  </si>
+  <si>
+    <t>I arrived quite late and the gentleman on staff was very friendly and made sure that check-in went quickly and efficiently and that I was happy with everything.  The location is a bit far from downtown Denver but if business or family takes you to the suburbs than you should be fine.  Also if you are interested in some of the hiking in the Rocky foothills such as Red Rocks you are fairly well-placed here.  The room was large and clean, breakfast basic but good.  It seems to be a newly developing area of SW Denver so it is not very built up and has an almost rural, bucolic atmosphere. Location close to the highways makes it convenient to get around metro Denver.  I felt welcome and comfortable and would definitely return.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>I arrived quite late and the gentleman on staff was very friendly and made sure that check-in went quickly and efficiently and that I was happy with everything.  The location is a bit far from downtown Denver but if business or family takes you to the suburbs than you should be fine.  Also if you are interested in some of the hiking in the Rocky foothills such as Red Rocks you are fairly well-placed here.  The room was large and clean, breakfast basic but good.  It seems to be a newly developing area of SW Denver so it is not very built up and has an almost rural, bucolic atmosphere. Location close to the highways makes it convenient to get around metro Denver.  I felt welcome and comfortable and would definitely return.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1414,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1446,2856 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>39832</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>39832</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>4</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>39832</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>39832</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
+        <v>59</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>39832</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>73</v>
+      </c>
+      <c r="O6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>2</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>39832</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>73</v>
+      </c>
+      <c r="O7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>39832</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L8" t="s">
+        <v>88</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>89</v>
+      </c>
+      <c r="O8" t="s">
+        <v>90</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>4</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>39832</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9" t="s">
+        <v>94</v>
+      </c>
+      <c r="L9" t="s">
+        <v>95</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>89</v>
+      </c>
+      <c r="O9" t="s">
+        <v>67</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>4</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>39832</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>97</v>
+      </c>
+      <c r="J10" t="s">
+        <v>98</v>
+      </c>
+      <c r="K10" t="s">
+        <v>99</v>
+      </c>
+      <c r="L10" t="s">
+        <v>100</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>89</v>
+      </c>
+      <c r="O10" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>39832</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>103</v>
+      </c>
+      <c r="J11" t="s">
+        <v>104</v>
+      </c>
+      <c r="K11" t="s">
+        <v>105</v>
+      </c>
+      <c r="L11" t="s">
+        <v>106</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>107</v>
+      </c>
+      <c r="O11" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>39832</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>109</v>
+      </c>
+      <c r="J12" t="s">
+        <v>110</v>
+      </c>
+      <c r="K12" t="s">
+        <v>111</v>
+      </c>
+      <c r="L12" t="s">
+        <v>112</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>113</v>
+      </c>
+      <c r="O12" t="s">
+        <v>67</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>39832</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>116</v>
+      </c>
+      <c r="J13" t="s">
+        <v>117</v>
+      </c>
+      <c r="K13" t="s">
+        <v>118</v>
+      </c>
+      <c r="L13" t="s">
+        <v>119</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>120</v>
+      </c>
+      <c r="O13" t="s">
+        <v>67</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>39832</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>121</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>122</v>
+      </c>
+      <c r="J14" t="s">
+        <v>123</v>
+      </c>
+      <c r="K14" t="s">
+        <v>124</v>
+      </c>
+      <c r="L14" t="s">
+        <v>125</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>120</v>
+      </c>
+      <c r="O14" t="s">
+        <v>59</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>4</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>39832</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>126</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>127</v>
+      </c>
+      <c r="J15" t="s">
+        <v>128</v>
+      </c>
+      <c r="K15" t="s">
+        <v>129</v>
+      </c>
+      <c r="L15" t="s">
+        <v>130</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>131</v>
+      </c>
+      <c r="O15" t="s">
+        <v>52</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>39832</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>132</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>133</v>
+      </c>
+      <c r="J16" t="s">
+        <v>134</v>
+      </c>
+      <c r="K16" t="s">
+        <v>135</v>
+      </c>
+      <c r="L16" t="s">
+        <v>136</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>137</v>
+      </c>
+      <c r="O16" t="s">
+        <v>52</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>39832</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>138</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>139</v>
+      </c>
+      <c r="J17" t="s">
+        <v>140</v>
+      </c>
+      <c r="K17" t="s">
+        <v>141</v>
+      </c>
+      <c r="L17" t="s">
+        <v>142</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>143</v>
+      </c>
+      <c r="O17" t="s">
+        <v>67</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>144</v>
+      </c>
+      <c r="X17" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>39832</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>147</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>148</v>
+      </c>
+      <c r="J18" t="s">
+        <v>149</v>
+      </c>
+      <c r="K18" t="s">
+        <v>150</v>
+      </c>
+      <c r="L18" t="s">
+        <v>151</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>152</v>
+      </c>
+      <c r="O18" t="s">
+        <v>59</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>39832</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>153</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>154</v>
+      </c>
+      <c r="J19" t="s">
+        <v>149</v>
+      </c>
+      <c r="K19" t="s">
+        <v>155</v>
+      </c>
+      <c r="L19" t="s">
+        <v>156</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="s">
+        <v>137</v>
+      </c>
+      <c r="O19" t="s">
+        <v>67</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>157</v>
+      </c>
+      <c r="X19" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>39832</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>160</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>161</v>
+      </c>
+      <c r="J20" t="s">
+        <v>162</v>
+      </c>
+      <c r="K20" t="s">
+        <v>163</v>
+      </c>
+      <c r="L20" t="s">
+        <v>164</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>143</v>
+      </c>
+      <c r="O20" t="s">
+        <v>67</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>165</v>
+      </c>
+      <c r="X20" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>39832</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>168</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>169</v>
+      </c>
+      <c r="J21" t="s">
+        <v>170</v>
+      </c>
+      <c r="K21" t="s">
+        <v>171</v>
+      </c>
+      <c r="L21" t="s">
+        <v>172</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>143</v>
+      </c>
+      <c r="O21" t="s">
+        <v>67</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>39832</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>173</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>174</v>
+      </c>
+      <c r="J22" t="s">
+        <v>175</v>
+      </c>
+      <c r="K22" t="s">
+        <v>176</v>
+      </c>
+      <c r="L22" t="s">
+        <v>177</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>178</v>
+      </c>
+      <c r="O22" t="s">
+        <v>59</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>179</v>
+      </c>
+      <c r="X22" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>39832</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>182</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>183</v>
+      </c>
+      <c r="J23" t="s">
+        <v>184</v>
+      </c>
+      <c r="K23" t="s">
+        <v>185</v>
+      </c>
+      <c r="L23" t="s">
+        <v>186</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>187</v>
+      </c>
+      <c r="O23" t="s">
+        <v>52</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>188</v>
+      </c>
+      <c r="X23" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>39832</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>191</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>192</v>
+      </c>
+      <c r="J24" t="s">
+        <v>193</v>
+      </c>
+      <c r="K24" t="s">
+        <v>194</v>
+      </c>
+      <c r="L24" t="s">
+        <v>195</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>196</v>
+      </c>
+      <c r="O24" t="s">
+        <v>59</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>39832</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>197</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>198</v>
+      </c>
+      <c r="J25" t="s">
+        <v>199</v>
+      </c>
+      <c r="K25" t="s">
+        <v>200</v>
+      </c>
+      <c r="L25" t="s">
+        <v>201</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>202</v>
+      </c>
+      <c r="O25" t="s">
+        <v>67</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>39832</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>203</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>204</v>
+      </c>
+      <c r="J26" t="s">
+        <v>205</v>
+      </c>
+      <c r="K26" t="s">
+        <v>206</v>
+      </c>
+      <c r="L26" t="s">
+        <v>207</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>208</v>
+      </c>
+      <c r="O26" t="s">
+        <v>59</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>39832</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>209</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>210</v>
+      </c>
+      <c r="J27" t="s">
+        <v>211</v>
+      </c>
+      <c r="K27" t="s">
+        <v>212</v>
+      </c>
+      <c r="L27" t="s">
+        <v>213</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>214</v>
+      </c>
+      <c r="O27" t="s">
+        <v>52</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>39832</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>215</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>216</v>
+      </c>
+      <c r="J28" t="s">
+        <v>217</v>
+      </c>
+      <c r="K28" t="s">
+        <v>218</v>
+      </c>
+      <c r="L28" t="s">
+        <v>219</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>220</v>
+      </c>
+      <c r="O28" t="s">
+        <v>52</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>39832</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>222</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>223</v>
+      </c>
+      <c r="J29" t="s">
+        <v>224</v>
+      </c>
+      <c r="K29" t="s">
+        <v>225</v>
+      </c>
+      <c r="L29" t="s">
+        <v>226</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>220</v>
+      </c>
+      <c r="O29" t="s">
+        <v>67</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>39832</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>227</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>228</v>
+      </c>
+      <c r="J30" t="s">
+        <v>229</v>
+      </c>
+      <c r="K30" t="s">
+        <v>230</v>
+      </c>
+      <c r="L30" t="s">
+        <v>231</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>220</v>
+      </c>
+      <c r="O30" t="s">
+        <v>67</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>3</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>39832</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>232</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>233</v>
+      </c>
+      <c r="J31" t="s">
+        <v>234</v>
+      </c>
+      <c r="K31" t="s">
+        <v>235</v>
+      </c>
+      <c r="L31" t="s">
+        <v>236</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>220</v>
+      </c>
+      <c r="O31" t="s">
+        <v>67</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>39832</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>237</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>238</v>
+      </c>
+      <c r="J32" t="s">
+        <v>239</v>
+      </c>
+      <c r="K32" t="s">
+        <v>240</v>
+      </c>
+      <c r="L32" t="s">
+        <v>241</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>242</v>
+      </c>
+      <c r="O32" t="s">
+        <v>52</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>39832</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>244</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>245</v>
+      </c>
+      <c r="J33" t="s">
+        <v>246</v>
+      </c>
+      <c r="K33" t="s">
+        <v>247</v>
+      </c>
+      <c r="L33" t="s">
+        <v>248</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>242</v>
+      </c>
+      <c r="O33" t="s">
+        <v>52</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="s"/>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>39832</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>249</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>250</v>
+      </c>
+      <c r="J34" t="s">
+        <v>251</v>
+      </c>
+      <c r="K34" t="s">
+        <v>252</v>
+      </c>
+      <c r="L34" t="s">
+        <v>253</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>254</v>
+      </c>
+      <c r="O34" t="s">
+        <v>255</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>39832</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>256</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>257</v>
+      </c>
+      <c r="J35" t="s">
+        <v>258</v>
+      </c>
+      <c r="K35" t="s">
+        <v>259</v>
+      </c>
+      <c r="L35" t="s">
+        <v>260</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s"/>
+      <c r="O35" t="s"/>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>39832</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>261</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>262</v>
+      </c>
+      <c r="J36" t="s">
+        <v>263</v>
+      </c>
+      <c r="K36" t="s">
+        <v>264</v>
+      </c>
+      <c r="L36" t="s">
+        <v>265</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>266</v>
+      </c>
+      <c r="O36" t="s">
+        <v>59</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>39832</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>268</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>269</v>
+      </c>
+      <c r="J37" t="s">
+        <v>270</v>
+      </c>
+      <c r="K37" t="s">
+        <v>271</v>
+      </c>
+      <c r="L37" t="s">
+        <v>272</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>273</v>
+      </c>
+      <c r="O37" t="s">
+        <v>67</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>39832</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>274</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>275</v>
+      </c>
+      <c r="J38" t="s">
+        <v>276</v>
+      </c>
+      <c r="K38" t="s">
+        <v>277</v>
+      </c>
+      <c r="L38" t="s">
+        <v>278</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s">
+        <v>279</v>
+      </c>
+      <c r="O38" t="s">
+        <v>255</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>39832</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>280</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>281</v>
+      </c>
+      <c r="J39" t="s">
+        <v>282</v>
+      </c>
+      <c r="K39" t="s">
+        <v>283</v>
+      </c>
+      <c r="L39" t="s">
+        <v>284</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s"/>
+      <c r="O39" t="s"/>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39832</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>285</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>286</v>
+      </c>
+      <c r="J40" t="s">
+        <v>287</v>
+      </c>
+      <c r="K40" t="s">
+        <v>288</v>
+      </c>
+      <c r="L40" t="s">
+        <v>289</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>290</v>
+      </c>
+      <c r="O40" t="s">
+        <v>67</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>4</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>291</v>
+      </c>
+      <c r="X40" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>39832</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>294</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>295</v>
+      </c>
+      <c r="J41" t="s">
+        <v>296</v>
+      </c>
+      <c r="K41" t="s">
+        <v>297</v>
+      </c>
+      <c r="L41" t="s">
+        <v>298</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>299</v>
+      </c>
+      <c r="O41" t="s">
+        <v>67</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>300</v>
+      </c>
+      <c r="X41" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>39832</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>302</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>303</v>
+      </c>
+      <c r="J42" t="s">
+        <v>304</v>
+      </c>
+      <c r="K42" t="s">
+        <v>305</v>
+      </c>
+      <c r="L42" t="s">
+        <v>306</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>299</v>
+      </c>
+      <c r="O42" t="s">
+        <v>67</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>300</v>
+      </c>
+      <c r="X42" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>39832</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>308</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>309</v>
+      </c>
+      <c r="J43" t="s">
+        <v>310</v>
+      </c>
+      <c r="K43" t="s">
+        <v>311</v>
+      </c>
+      <c r="L43" t="s">
+        <v>312</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>299</v>
+      </c>
+      <c r="O43" t="s">
+        <v>67</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>300</v>
+      </c>
+      <c r="X43" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>39832</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>314</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>315</v>
+      </c>
+      <c r="J44" t="s">
+        <v>316</v>
+      </c>
+      <c r="K44" t="s">
+        <v>317</v>
+      </c>
+      <c r="L44" t="s">
+        <v>318</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>319</v>
+      </c>
+      <c r="O44" t="s">
+        <v>59</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>4</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>300</v>
+      </c>
+      <c r="X44" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>39832</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>321</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>322</v>
+      </c>
+      <c r="J45" t="s">
+        <v>323</v>
+      </c>
+      <c r="K45" t="s">
+        <v>324</v>
+      </c>
+      <c r="L45" t="s">
+        <v>325</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>326</v>
+      </c>
+      <c r="O45" t="s">
+        <v>59</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>4</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>300</v>
+      </c>
+      <c r="X45" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>39832</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>328</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>329</v>
+      </c>
+      <c r="J46" t="s">
+        <v>330</v>
+      </c>
+      <c r="K46" t="s">
+        <v>331</v>
+      </c>
+      <c r="L46" t="s">
+        <v>332</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>333</v>
+      </c>
+      <c r="O46" t="s">
+        <v>255</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>300</v>
+      </c>
+      <c r="X46" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>334</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Denver/Denver_shard_275.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_275.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="535">
   <si>
     <t>STR#</t>
   </si>
@@ -147,18 +147,96 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/05/2018</t>
+    <t>09/07/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d125849-r613244582-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>33524</t>
+  </si>
+  <si>
+    <t>125849</t>
+  </si>
+  <si>
+    <t>613244582</t>
+  </si>
+  <si>
+    <t>09/02/2018</t>
+  </si>
+  <si>
+    <t>Clean and quiet, if a bit shabby</t>
+  </si>
+  <si>
+    <t>This hotel was clean and quiet, even if the furnishings were a bit older and shabby. Pros: - 2 bedroom suite is great for sharing with friends- Nice grill and fire pit area- Handy to Red Rocks amphitheaterCons: - Furniture and furnishings are a bit beat up- The hotel is a few miles from anything: groceries, drug store, restaurants. Instead, it's in a business park</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d125849-r606895221-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>606895221</t>
+  </si>
+  <si>
+    <t>08/15/2018</t>
+  </si>
+  <si>
+    <t>Stay was ok, but multiple maintenance issues</t>
+  </si>
+  <si>
+    <t>#1- Two days prior to arrival, called hotel to request a Very firm mattress as husband had recent back surgery. Was assured this request could be fulfilled. On arrival, asked front desk same, and was assured that the mattress was firm. However found the mattress was a pillowtop, so by default, not very firm (again, needed Really Firm for a recovering back surgery). Went to front desk, spoke with receptionist and maintenance man, both of whom assured me they would take care of the request and simply flip the mattress over. On return that night, we found this had not been done, so husband (back surgery) and myself (rotator cuff repair) had to flip the mattress ourselves.  #2-  pillows were plentiful but Very soft.  #3- air conditioner was unable to maintain a constant temperature- had to manually drop temp down to 63 to get it to cool. On day before our checkout, the air conditioner leaked onto the carpet- saturating it completely by the bed.  #4- we stayed 5 nites (Thur-Tues), however on Sunday and Monday, housekeeping was a no-show= did not empty trash, clean the bathroom, replenish toilet paper, paper towel &amp; facial tissues, or vacuum (obviously, since the floor was Soaked on Monday).  #5- toilet ran continuously.  #6- kitchen and bathroom faucets dripped.   Otherwise, hotel room was clean and very adequate for our stay- plenty of drawer and closet space (and hangers!- yay).  Small full kitchen with most...#1- Two days prior to arrival, called hotel to request a Very firm mattress as husband had recent back surgery. Was assured this request could be fulfilled. On arrival, asked front desk same, and was assured that the mattress was firm. However found the mattress was a pillowtop, so by default, not very firm (again, needed Really Firm for a recovering back surgery). Went to front desk, spoke with receptionist and maintenance man, both of whom assured me they would take care of the request and simply flip the mattress over. On return that night, we found this had not been done, so husband (back surgery) and myself (rotator cuff repair) had to flip the mattress ourselves.  #2-  pillows were plentiful but Very soft.  #3- air conditioner was unable to maintain a constant temperature- had to manually drop temp down to 63 to get it to cool. On day before our checkout, the air conditioner leaked onto the carpet- saturating it completely by the bed.  #4- we stayed 5 nites (Thur-Tues), however on Sunday and Monday, housekeeping was a no-show= did not empty trash, clean the bathroom, replenish toilet paper, paper towel &amp; facial tissues, or vacuum (obviously, since the floor was Soaked on Monday).  #5- toilet ran continuously.  #6- kitchen and bathroom faucets dripped.   Otherwise, hotel room was clean and very adequate for our stay- plenty of drawer and closet space (and hangers!- yay).  Small full kitchen with most items provided. Close to Red Rock Amphitheater, hiking trails and beautiful drives, close to freeway but really quiet inside the rooms. NO in-room safe. When advised of housekeeping issues, staff Was quickly responsive, replenishing all paper goods.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>#1- Two days prior to arrival, called hotel to request a Very firm mattress as husband had recent back surgery. Was assured this request could be fulfilled. On arrival, asked front desk same, and was assured that the mattress was firm. However found the mattress was a pillowtop, so by default, not very firm (again, needed Really Firm for a recovering back surgery). Went to front desk, spoke with receptionist and maintenance man, both of whom assured me they would take care of the request and simply flip the mattress over. On return that night, we found this had not been done, so husband (back surgery) and myself (rotator cuff repair) had to flip the mattress ourselves.  #2-  pillows were plentiful but Very soft.  #3- air conditioner was unable to maintain a constant temperature- had to manually drop temp down to 63 to get it to cool. On day before our checkout, the air conditioner leaked onto the carpet- saturating it completely by the bed.  #4- we stayed 5 nites (Thur-Tues), however on Sunday and Monday, housekeeping was a no-show= did not empty trash, clean the bathroom, replenish toilet paper, paper towel &amp; facial tissues, or vacuum (obviously, since the floor was Soaked on Monday).  #5- toilet ran continuously.  #6- kitchen and bathroom faucets dripped.   Otherwise, hotel room was clean and very adequate for our stay- plenty of drawer and closet space (and hangers!- yay).  Small full kitchen with most...#1- Two days prior to arrival, called hotel to request a Very firm mattress as husband had recent back surgery. Was assured this request could be fulfilled. On arrival, asked front desk same, and was assured that the mattress was firm. However found the mattress was a pillowtop, so by default, not very firm (again, needed Really Firm for a recovering back surgery). Went to front desk, spoke with receptionist and maintenance man, both of whom assured me they would take care of the request and simply flip the mattress over. On return that night, we found this had not been done, so husband (back surgery) and myself (rotator cuff repair) had to flip the mattress ourselves.  #2-  pillows were plentiful but Very soft.  #3- air conditioner was unable to maintain a constant temperature- had to manually drop temp down to 63 to get it to cool. On day before our checkout, the air conditioner leaked onto the carpet- saturating it completely by the bed.  #4- we stayed 5 nites (Thur-Tues), however on Sunday and Monday, housekeeping was a no-show= did not empty trash, clean the bathroom, replenish toilet paper, paper towel &amp; facial tissues, or vacuum (obviously, since the floor was Soaked on Monday).  #5- toilet ran continuously.  #6- kitchen and bathroom faucets dripped.   Otherwise, hotel room was clean and very adequate for our stay- plenty of drawer and closet space (and hangers!- yay).  Small full kitchen with most items provided. Close to Red Rock Amphitheater, hiking trails and beautiful drives, close to freeway but really quiet inside the rooms. NO in-room safe. When advised of housekeeping issues, staff Was quickly responsive, replenishing all paper goods.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d125849-r595296713-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>595296713</t>
+  </si>
+  <si>
+    <t>07/11/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Need to get breakfast early.  </t>
+  </si>
+  <si>
+    <t>Nice hotel for the price we paid staying near Denver.  Close distance to red rock amphitheater.  Everything was ok except for breakfast.  I arrived at breakfast at 8:15 and the food was nearly out.  Staff was slow (or unwilling) to make sure food is well stocked.  Everyone was complaining about the shortage of food when in fact breakfast is offered until 9am</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d125849-r571790871-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>571790871</t>
+  </si>
+  <si>
+    <t>04/07/2018</t>
+  </si>
+  <si>
+    <t>Great Hotel Away From it All!</t>
+  </si>
+  <si>
+    <t>A comfortable hotel and a reliable place to stay in the Littleton, CO area convenient to Deer Creek Park. Friendly staff and clean accommodations. Comfy bed! Away from the business area and nestled in the foothills. I've stayed here several times over the years and haven't been disappointed.</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d125849-r571511144-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
   </si>
   <si>
-    <t>33524</t>
-  </si>
-  <si>
-    <t>125849</t>
-  </si>
-  <si>
     <t>571511144</t>
   </si>
   <si>
@@ -171,12 +249,6 @@
     <t xml:space="preserve">Beautiful scenery for a nice room view. Hotel staff was friendly and helpful during checkin &amp; helped with suggesting local restaurants. Rooms were very clean,  accommodating &amp; fully equipped. The free breakfast was hot &amp; fresh. </t>
   </si>
   <si>
-    <t>April 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d125849-r557589166-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
   </si>
   <si>
@@ -195,9 +267,6 @@
     <t>January 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>I have had the pleasure of staying at this Marriott property for many days in Dec 2017 and Jan 2018 with a focus on having a quiet, clean environment within which to develop business documentation and deliver business webinars. This property is a great value for the price or points. I love this location and have made it my #1 go-to hotel for both business and personal reasons. Every staff member goes above and beyond to put customers first and ensure you can be productive, get good rest, and enjoy your visit. This includes accommodating specific needs and last-minute requests. For example, I had a need for "absolute quiet" during business hours in order to work 12+-hour days to fulfill work requirements. The staff helped me find the appropriate building and room, which enabled me to achieve my work objectives while thoroughly enjoying the environment, because of the views and ability to open the windows. Staff members in every area of the business consistently communicated with me in a way that made me feel truly valued (front desk, kitchen, engineering and maintenance, housekeeping, management). They are the best Marriott crew I've had the privilege to get to know, and I've known hundreds of hotel teams worldwide over the past 20 years of business and personal travels. While the hotel interior is dated in terms of décor, it is well-maintained and clean, and the amenities are great, if you need a...I have had the pleasure of staying at this Marriott property for many days in Dec 2017 and Jan 2018 with a focus on having a quiet, clean environment within which to develop business documentation and deliver business webinars. This property is a great value for the price or points. I love this location and have made it my #1 go-to hotel for both business and personal reasons. Every staff member goes above and beyond to put customers first and ensure you can be productive, get good rest, and enjoy your visit. This includes accommodating specific needs and last-minute requests. For example, I had a need for "absolute quiet" during business hours in order to work 12+-hour days to fulfill work requirements. The staff helped me find the appropriate building and room, which enabled me to achieve my work objectives while thoroughly enjoying the environment, because of the views and ability to open the windows. Staff members in every area of the business consistently communicated with me in a way that made me feel truly valued (front desk, kitchen, engineering and maintenance, housekeeping, management). They are the best Marriott crew I've had the privilege to get to know, and I've known hundreds of hotel teams worldwide over the past 20 years of business and personal travels. While the hotel interior is dated in terms of décor, it is well-maintained and clean, and the amenities are great, if you need a "home away from home" for an extended period. This is a pet-friendly property, but the staff does it best to consider no-pet customers, re: quiet. Also, stains, odor, and other visible signs of wear/tear are well-managed, so while you can tell this is an older property, it's comfortable and pleasant even for a clean freak like me. The physical location of the property is terrific for anyone looking for peace and quiet as well as access to the western C-470 and I-70 corridors into the mountains. Even with C-470 construction (Dec 2017 to present), you can get to the I-25 corridor within 15 to 20 minutes, which is another plus for business travelers commuting into the Denver Tech Center (DTC). Additionally, there are several casual restaurants, fast-food places, and shopping nearby (e.g., Kohl's, Walmart, Best Buy, etc.). I prefer long-stay properties with kitchens like Marriott TownePlace Suites and Residence Inns or Hilton Homewood Suites or Home2Suites, because I like to prepare my own meals. There are two King Soopers' grocery stores within a few minutes of this location. Complimentary breakfasts that are on par with other Marriott properties (e.g., protein, carbs, and sweet treats) and there's a nice outdoor grilling/sitting area available. To conclude, I enthusiastically recommend this property and look forward to returning in the future.More</t>
   </si>
   <si>
@@ -222,6 +291,39 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d125849-r546082256-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>546082256</t>
+  </si>
+  <si>
+    <t>12/08/2017</t>
+  </si>
+  <si>
+    <t>Super Accomodating Staff</t>
+  </si>
+  <si>
+    <t>We were staying here because my in laws live just down the street. The staff could not have been more accommodating. We had booked two x two bedroom suites so we could have everyone together for thanksgiving but they had nothing adjoining. So they gave us two one bedrooms with a connecting door and a two bedroom suite as well. Wow! With that kind of service I can forgive the bucket sausages, breakfast here is not worth the effort. Free is the right price for it.</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d125849-r539863399-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>539863399</t>
+  </si>
+  <si>
+    <t>11/09/2017</t>
+  </si>
+  <si>
+    <t>Nice Surprise</t>
+  </si>
+  <si>
+    <t>I had seen some reviews and was nervous as this was my only option with such short notice. What a nice surprise! Great value, freshly painted, friendly staff, quiet location, easy access to work and restaurants. I will stay here again.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d125849-r532336779-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
   </si>
   <si>
@@ -270,6 +372,51 @@
     <t xml:space="preserve">It is a nice place to stay. Good staff. Had a typical Continental breakfast. On the weekends they have biscuits and gravy with meat. Except for what’s in the gravy there is no other meat options. So lots of carbs! For me the location is the disadvantaged. It had a Littleton address, which for me caused me to be deceived as to where it was located. It is off of C470 and Kipling. It sits at the foothills </t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d125849-r520875984-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>520875984</t>
+  </si>
+  <si>
+    <t>09/03/2017</t>
+  </si>
+  <si>
+    <t>Great staff and amenities! Not too far from Red Rocks</t>
+  </si>
+  <si>
+    <t>The hotel was fantastic. Comfortable bed, full kitchen, not far from shopping, food and close to Red Rocks. All the staff was beyond kind and friendly. One front desk attendant in particular was extremely helpful, his name is Chris Tolbertson. He deserves recognition for being great at his job. We will come back ️</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d125849-r508714188-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>508714188</t>
+  </si>
+  <si>
+    <t>08/04/2017</t>
+  </si>
+  <si>
+    <t>A nice looking hotel--from the outside! (But don't look INSIDE!)</t>
+  </si>
+  <si>
+    <t>I stayed only one night at this hotel from which I expected the outstanding service, cleanliness, and especially quietness that I have experienced at many other Marriott establishments where I stayed in the past two months.However, this hotel was definitely an exception! I was very disappointed because:* my room (No. 322) was not quiet because it was near the elevator, PLUS I heard many people speaking loudly as they passed by my door, PLUS a construction crew was working just across the way from my room. Ugh! And I am a writer, needed peace and quiet--which I never received.* the entrance to the building in which I stayed was:   ** filthy, with the door itself caked with dirt;   ** the carpet was filthy beyond belief.I would say, however, that the personnel were friendly and helpful, the outdoor heated swimming pool was very refreshing, and the parking lot, although crowded, was tidy.I wouldn’t stay at this hotel again. It was not up to excellent Marriott standards! And I LOVE staying at Marriotts--absolutely my favorite hotel chain. Super excellent (normally). I wish I could have a refund of the money and a reinstatement of the points which I used to pay for my room. Today I’m switching to a Hilton in Denver with fingers crossed that I receive an acceptable room.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Chris W, Assistant General Manager at TownePlace Suites Denver Southwest/Littleton, responded to this reviewResponded August 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 8, 2017</t>
+  </si>
+  <si>
+    <t>I stayed only one night at this hotel from which I expected the outstanding service, cleanliness, and especially quietness that I have experienced at many other Marriott establishments where I stayed in the past two months.However, this hotel was definitely an exception! I was very disappointed because:* my room (No. 322) was not quiet because it was near the elevator, PLUS I heard many people speaking loudly as they passed by my door, PLUS a construction crew was working just across the way from my room. Ugh! And I am a writer, needed peace and quiet--which I never received.* the entrance to the building in which I stayed was:   ** filthy, with the door itself caked with dirt;   ** the carpet was filthy beyond belief.I would say, however, that the personnel were friendly and helpful, the outdoor heated swimming pool was very refreshing, and the parking lot, although crowded, was tidy.I wouldn’t stay at this hotel again. It was not up to excellent Marriott standards! And I LOVE staying at Marriotts--absolutely my favorite hotel chain. Super excellent (normally). I wish I could have a refund of the money and a reinstatement of the points which I used to pay for my room. Today I’m switching to a Hilton in Denver with fingers crossed that I receive an acceptable room.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d125849-r507211115-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
   </si>
   <si>
@@ -288,9 +435,6 @@
     <t>July 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d125849-r505880849-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
   </si>
   <si>
@@ -324,6 +468,42 @@
     <t>This is the 3rd time I have stayed at this hotel.  The staff was very friendly and accommodating.  I was upgraded to a 2 bedroom suite at no extra charge because I needed two beds.  I had a nice view of the foothills.  The rooms are clean and well maintained.  This hotel is conveniently located right off Highway 470 which is the outer loop of the Denver area.  The hotel is literally 2 minutes from being on The highway.  Easy commute to all attractions, about 20 minutes from the airport."  There is a nice park, South Valley Park right around the corner and the hotel is close to Morrison and the Red Rock amphitheater.  The hotel only has an outdoor pool, but I am not a pool person.  However plenty of people were using it.  Breakfast is served everyday for free with waffles, eggs and basic continental type fixings.  Staff is very helpful and go out of their way to help.  For the value, this is a great hotel.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d125849-r495184849-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>495184849</t>
+  </si>
+  <si>
+    <t>06/22/2017</t>
+  </si>
+  <si>
+    <t>Pet-friendly and convenient location</t>
+  </si>
+  <si>
+    <t>We recently stayed here in a 2 bedroom suite. It was a good size for three adults, two kids, and two cats. The staff was very friendly and accommodating in providing extra towels and coffee. This is a must when your kids are 1 year old! Breakfast was decent and the waffles were awesome. It would be nice if they added some scrambled eggs or breakfast sausage to go with the biscuits and gravy. The pool had just opened, so we did not have time to venture out, but it looked nice. It also appears they are adding a fire pit to the other side, which will be a nice addition. There is plenty of parking and it is easy access to C-470. I would recommend this to anyone traveling through the area, especially if you have pets.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>We recently stayed here in a 2 bedroom suite. It was a good size for three adults, two kids, and two cats. The staff was very friendly and accommodating in providing extra towels and coffee. This is a must when your kids are 1 year old! Breakfast was decent and the waffles were awesome. It would be nice if they added some scrambled eggs or breakfast sausage to go with the biscuits and gravy. The pool had just opened, so we did not have time to venture out, but it looked nice. It also appears they are adding a fire pit to the other side, which will be a nice addition. There is plenty of parking and it is easy access to C-470. I would recommend this to anyone traveling through the area, especially if you have pets.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d125849-r494692338-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>494692338</t>
+  </si>
+  <si>
+    <t>06/20/2017</t>
+  </si>
+  <si>
+    <t>Lovely location, very nice suite</t>
+  </si>
+  <si>
+    <t>I had injured my knee, and I was waking up too early, so my wife and I needed two  bedrooms.  This was perfect for our needs.  Comfortable beds, free breakfast, quiet rooms.  And we drove a very short distance to some beautiful state park red rock canyon scenery and got in some excellent hiking too (exercising my knee).  We needed to stay one extra night, and the staff bent over backwards to accommodate us.  First class service!  About six miles from Littleton but worth the drive.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d125849-r492277874-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
   </si>
   <si>
@@ -339,9 +519,6 @@
     <t>We were impressed by the lovely suite which included a couch, kitchenette and nice bathroom. We overlooked the pool and on our 3rd day we came back after lunch to a jackhammer next to the pool where they were creating a BBQ area.  Our intent was to take a nap before my Mom's 90th Birthday dinner.  When we mentioned the noise to the front desk, they had the work stopped.  The only downside to the room was the noisy AC unit right next to the bed.  The three night rate seemed a little steep.</t>
   </si>
   <si>
-    <t>June 2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d125849-r470712817-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
   </si>
   <si>
@@ -381,6 +558,48 @@
     <t>October 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d125849-r450839328-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>450839328</t>
+  </si>
+  <si>
+    <t>01/09/2017</t>
+  </si>
+  <si>
+    <t>Great little place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A newer hotel so everything is in good working order. All the staff were friendly and helpful. Great recommendations for local breweries and tourist places. The bed was firm and comfortable. Easy access to the highway. Free breakfast which is okay at best but it is free! No issues and I would recommend this place easily if you're staying in the area. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d125849-r438894549-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>438894549</t>
+  </si>
+  <si>
+    <t>11/20/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don't know why anyone would stay here </t>
+  </si>
+  <si>
+    <t>Stayed here with my wife and baby while back in Colorado visiting family in the area. Frankly, I don't know why anyone would stay here. There are much better options at the same price point within a couple miles. We were suppose to spend two nights here later in the week, but I canceled and will rebook at another property. Marriott is doing its brand a major disservice by slapping such a great name on such less-than-mediocre places like this TownePlace Suites. We weren't expecting luxury, but expected something maybe slightly nicer than the Holiday Inn Express a mile away. The common areas of this hotel are simply tired and sad, and also in need of cleaning. Shocking how dirty all common areas are. Our room looked ok with a newish and wanna-be trendy couch, but overall, the room is nothing great. The kitchenette and bathroom finishes feel like a mobile home. There was someone else's hair on the floor of the bathroom. There is a slight gap at the top of the room doors for many rooms I saw, which allows light and noise from within the room to go into the hallway.Would not recommend that anyone stay here. Much better value not too far away. MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>TPSbyMarriott, Manager at TownePlace Suites Denver Southwest/Littleton, responded to this reviewResponded November 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 22, 2016</t>
+  </si>
+  <si>
+    <t>Stayed here with my wife and baby while back in Colorado visiting family in the area. Frankly, I don't know why anyone would stay here. There are much better options at the same price point within a couple miles. We were suppose to spend two nights here later in the week, but I canceled and will rebook at another property. Marriott is doing its brand a major disservice by slapping such a great name on such less-than-mediocre places like this TownePlace Suites. We weren't expecting luxury, but expected something maybe slightly nicer than the Holiday Inn Express a mile away. The common areas of this hotel are simply tired and sad, and also in need of cleaning. Shocking how dirty all common areas are. Our room looked ok with a newish and wanna-be trendy couch, but overall, the room is nothing great. The kitchenette and bathroom finishes feel like a mobile home. There was someone else's hair on the floor of the bathroom. There is a slight gap at the top of the room doors for many rooms I saw, which allows light and noise from within the room to go into the hallway.Would not recommend that anyone stay here. Much better value not too far away. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d125849-r437823241-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
   </si>
   <si>
@@ -432,6 +651,36 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d125849-r404945070-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>404945070</t>
+  </si>
+  <si>
+    <t>08/13/2016</t>
+  </si>
+  <si>
+    <t>Clean, Confy and Friendly</t>
+  </si>
+  <si>
+    <t>The suite was comfy and clean.  The employees all had a smile and greeting as we passed them in the hotel.  The breakfast was tasty and stocked with lots of hot and cold choices.  The location was great for food, gas and stores.  It was perfect if your going to Red Rocks Park.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d125849-r399030121-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>399030121</t>
+  </si>
+  <si>
+    <t>07/29/2016</t>
+  </si>
+  <si>
+    <t>Great Motel in Lilliton Colorado</t>
+  </si>
+  <si>
+    <t>Looked really good on approach. Behind the desk were two very friendly and helpful ladies, Kate and Claire. This is our second stay at this location. We highly recommend Towneplace Suites and if we return to Denver this will be our hotel. PS: the grandkids loved the fresh waffles for breakfast.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d125849-r396445076-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
   </si>
   <si>
@@ -498,6 +747,39 @@
     <t>First upon arrival you notice the nice backdrop of the hogbacks (where the mountains start). Pulling up you enter and see the pool. It is dinky but clean. The hotel has 3 stories. I recommend highest floor possible. Thin walls big time. The staff is very friendly. They offer a free breakfast in the morning. Basic sausage, eggs that are squished to make a sandwich out of, cereal, waffle maker, doughnuts and bagels. The later you go, they run out of everything. Since we had a kitchen I went super early and stored the food in our kitchen. One day no food except waffles and a few bagels left. The milk was frozen they said so you couldn't even have cereal. (I found someone to ask about the milk). They had no signs out to let you know if they would refill so you didn't know to wait or leave. One night was awful. A car alarm would sporadically go off and when we called the front desk they were unaware and offered nothing. Even a simple let me see if I can do something or I'm sorry, anything. Alt why said was "okay". Customers had to call the police themselves. Unfortunately to know avail, so we had no sleep all night and the staff dis not say a word to anyone. An apology would of been nice at the very least. I mentioned it to the new staff in...First upon arrival you notice the nice backdrop of the hogbacks (where the mountains start). Pulling up you enter and see the pool. It is dinky but clean. The hotel has 3 stories. I recommend highest floor possible. Thin walls big time. The staff is very friendly. They offer a free breakfast in the morning. Basic sausage, eggs that are squished to make a sandwich out of, cereal, waffle maker, doughnuts and bagels. The later you go, they run out of everything. Since we had a kitchen I went super early and stored the food in our kitchen. One day no food except waffles and a few bagels left. The milk was frozen they said so you couldn't even have cereal. (I found someone to ask about the milk). They had no signs out to let you know if they would refill so you didn't know to wait or leave. One night was awful. A car alarm would sporadically go off and when we called the front desk they were unaware and offered nothing. Even a simple let me see if I can do something or I'm sorry, anything. Alt why said was "okay". Customers had to call the police themselves. Unfortunately to know avail, so we had no sleep all night and the staff dis not say a word to anyone. An apology would of been nice at the very least. I mentioned it to the new staff in the morning and they said "oh yeah we heard about that" and laughed it off, super irritating. The room we stayed in was a 2 bedroom. Kitchen was fully equipped. Recommend going to the grocery store and stocking up. The a/c unit is super loud. Ask for extra shampoo. With a 2 bedroom you know the staff knows a few people are staying in it and they give you one dinky bottle of each item. I liked the room but with the hiccups that they did not address at all I'm not sure I would stay again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d125849-r387855613-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>387855613</t>
+  </si>
+  <si>
+    <t>06/30/2016</t>
+  </si>
+  <si>
+    <t>Great location, good value, but a few issues</t>
+  </si>
+  <si>
+    <t>It is nice to find a hotel that offers two private bedrooms and a living area/kitchen for the same price as a Hampton Inn or Homewood Suites.  Overall, we had a nice stay and the staff is very friendly and helpful.  However, when we checked in, our keys didn't work so the front desk rep came back with me and used another set of keys which worked, but someone was already in the room.  So we needed to go back to the front desk and get a third set of keys to get into our actual room.  We stayed for 5 nights and housekeeping does not vacuum unless you request it.  My mom had spilled powder on her bedroom carpet and it needed vacuuming.  The furniture is a bit worn and light sleepers might hear traffic noise from 470. Beds were comfortable and the freshly baked cookies every afternoon were yummy.  Nicely stocked "market" in registration area.  A variety of restaurants are close by on Kipling.MoreShow less</t>
+  </si>
+  <si>
+    <t>It is nice to find a hotel that offers two private bedrooms and a living area/kitchen for the same price as a Hampton Inn or Homewood Suites.  Overall, we had a nice stay and the staff is very friendly and helpful.  However, when we checked in, our keys didn't work so the front desk rep came back with me and used another set of keys which worked, but someone was already in the room.  So we needed to go back to the front desk and get a third set of keys to get into our actual room.  We stayed for 5 nights and housekeeping does not vacuum unless you request it.  My mom had spilled powder on her bedroom carpet and it needed vacuuming.  The furniture is a bit worn and light sleepers might hear traffic noise from 470. Beds were comfortable and the freshly baked cookies every afternoon were yummy.  Nicely stocked "market" in registration area.  A variety of restaurants are close by on Kipling.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d125849-r386788164-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>386788164</t>
+  </si>
+  <si>
+    <t>06/27/2016</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>Me and my family loved this TownePlace suites.First was location quiet and great view , hotel was clean ,we loved our suite in 1st floor 114 clean and has everything we needed , the guy who checked us in was great sorry I don't remember his name but he was working when we checked in the evening of 6/18.We are planning to go back there for a week next vacation.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d125849-r380568546-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
   </si>
   <si>
@@ -564,6 +846,57 @@
     <t>I was pleasantly surprised by this hotel.  The support staff was very helpful. The room was clean. While it was a bit noisier than I would have liked, overall a very decent place to stay. I did find the placement of the television to be odd, as it was in a position that made me wonder where one was to sit to watch. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d125849-r360144058-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>360144058</t>
+  </si>
+  <si>
+    <t>03/30/2016</t>
+  </si>
+  <si>
+    <t>Stayed for a night</t>
+  </si>
+  <si>
+    <t>I stayed one night here while in town for an interview.  The room was nice with a "full" kitchen. But the dishwasher still had dishes in it and the fridge had a box of leftover pizza.  The staff was friendly and the breakfast was OK.  All in all an alright stay for me but just for overnight.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>TPSbyMarriott, Manager at TownePlace Suites Denver Southwest/Littleton, responded to this reviewResponded April 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 2, 2016</t>
+  </si>
+  <si>
+    <t>I stayed one night here while in town for an interview.  The room was nice with a "full" kitchen. But the dishwasher still had dishes in it and the fridge had a box of leftover pizza.  The staff was friendly and the breakfast was OK.  All in all an alright stay for me but just for overnight.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d125849-r355085048-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>355085048</t>
+  </si>
+  <si>
+    <t>03/13/2016</t>
+  </si>
+  <si>
+    <t>Wouldn't choose this place again...</t>
+  </si>
+  <si>
+    <t>A very average hotel for Marriott International. Surrounded by mountains, but a little far from Downtown Denver (27 minutes - and we felt every minute of the ride). The hotel's services were great - pretty friendly staff. The overall noise level was low, but the rooms had paper thin walls so that meant listening to people's loud conversations throughout the day. The room size was doable - queen bed, couch, TV, desk, bathroom, small kitchen supplied with kitchen utensils. However, if I come back to Denver, I'd rather keep my commute short and stay in the city.MoreShow less</t>
+  </si>
+  <si>
+    <t>TPSbyMarriott, Manager at TownePlace Suites Denver Southwest/Littleton, responded to this reviewResponded March 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 14, 2016</t>
+  </si>
+  <si>
+    <t>A very average hotel for Marriott International. Surrounded by mountains, but a little far from Downtown Denver (27 minutes - and we felt every minute of the ride). The hotel's services were great - pretty friendly staff. The overall noise level was low, but the rooms had paper thin walls so that meant listening to people's loud conversations throughout the day. The room size was doable - queen bed, couch, TV, desk, bathroom, small kitchen supplied with kitchen utensils. However, if I come back to Denver, I'd rather keep my commute short and stay in the city.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d125849-r351819876-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
   </si>
   <si>
@@ -627,6 +960,51 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d125849-r326133036-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>326133036</t>
+  </si>
+  <si>
+    <t>11/11/2015</t>
+  </si>
+  <si>
+    <t>Room of horrors</t>
+  </si>
+  <si>
+    <t>My stay at this hotel was horrific! In fact this hotel gives Marriott a bad name. I am not a hard guest to please. All I look for in a hotel is a clean room. I honestly don't think this room could have been much dirtier. The bathroom sink was water spotted, there were hairs on the shower wall and mold growing on the shower curtain. The beds had not had their sheets changed and they smelled and had body hairs in them. Upon changing the sheets to some spares that I found I discovered blood spots all over the mattress, a clear sign of bed bugs, and sadly this was only the beginning of the horrendous things I discovered during my stay. The dresser drawers were littered with trash, the closet door was broken and almost fell on my son. There was large white stains on the carpet and what looked like dried milk on the tv stand. Every dish in the kitchen was filthy dirty. I'm talking dried milk and soda in cups crusty silverware and even an old cup of coffee in the microwave. Stay at this hotel only as a last resort!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>TPSbyMarriott, Manager at TownePlace Suites Denver Southwest/Littleton, responded to this reviewResponded November 13, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 13, 2015</t>
+  </si>
+  <si>
+    <t>My stay at this hotel was horrific! In fact this hotel gives Marriott a bad name. I am not a hard guest to please. All I look for in a hotel is a clean room. I honestly don't think this room could have been much dirtier. The bathroom sink was water spotted, there were hairs on the shower wall and mold growing on the shower curtain. The beds had not had their sheets changed and they smelled and had body hairs in them. Upon changing the sheets to some spares that I found I discovered blood spots all over the mattress, a clear sign of bed bugs, and sadly this was only the beginning of the horrendous things I discovered during my stay. The dresser drawers were littered with trash, the closet door was broken and almost fell on my son. There was large white stains on the carpet and what looked like dried milk on the tv stand. Every dish in the kitchen was filthy dirty. I'm talking dried milk and soda in cups crusty silverware and even an old cup of coffee in the microwave. Stay at this hotel only as a last resort!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d125849-r321755848-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>321755848</t>
+  </si>
+  <si>
+    <t>10/25/2015</t>
+  </si>
+  <si>
+    <t>Long, comfortable business trip</t>
+  </si>
+  <si>
+    <t>I've stayed here twice recently, and while the lodging is typical Marriott (and that's neutral), the staff here have made me feel at home and cared for on both trips. I was there over Labor Day weekend, and the air conditioning broke in my suite.  Bob, the night manager was both kind and extremely professional as he moved my and my sister into another suite--great service!I just returned home to Dallas after a 3 week stay at Towneplace.  Bob was helpful, as usual, and Scott and Ashley treated me like family and made sure I had everything I needed.  I also want to thank the housekeeping staff, especially Yessy, who took such good care of me.The location is about 45 minutes west of DIA, and also about 45 minutes south of Boulder.MoreShow less</t>
+  </si>
+  <si>
+    <t>I've stayed here twice recently, and while the lodging is typical Marriott (and that's neutral), the staff here have made me feel at home and cared for on both trips. I was there over Labor Day weekend, and the air conditioning broke in my suite.  Bob, the night manager was both kind and extremely professional as he moved my and my sister into another suite--great service!I just returned home to Dallas after a 3 week stay at Towneplace.  Bob was helpful, as usual, and Scott and Ashley treated me like family and made sure I had everything I needed.  I also want to thank the housekeeping staff, especially Yessy, who took such good care of me.The location is about 45 minutes west of DIA, and also about 45 minutes south of Boulder.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d125849-r288702553-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
   </si>
   <si>
@@ -684,6 +1062,39 @@
     <t>This hotel is in better shape than the last TPS I stayed in.  They have cookies every evening around 1700 and I was informed of this fact at check in which I thought was nice.  Sometimes hotels never mention they will have cookies later.  Our room was the typical TPS layout and we opted for a studio which I prefer as they feel roomier.  The room had a recycle bin.  Our room was fine and the layout good; I always like the studio suite concept as it gives room to spread out.  There are no luggage racks as they expect you to unpack and place your items in drawers.  I never do that so I wish the “extended stay” hotels had luggage racks.  I laid my suitcase on the kitchen counter.  They had a tray for your laptop beside the sofa that was appreciated.  The bed slept OK but they could use a thicken mattress pad.  Everything seemed clean enough.Breakfast was as expected for a Towneplace Suites.  It is closer to continental than most but they did have hot oatmeal and a waffle maker.  Hard boiled eggs were also available.  I wish the coffee was bolder but I find the coffee weak in most Marriott chain hotels.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d125849-r277866578-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>277866578</t>
+  </si>
+  <si>
+    <t>06/04/2015</t>
+  </si>
+  <si>
+    <t>Amidst it all</t>
+  </si>
+  <si>
+    <t>As three time visitors,  my wife and I picked a easily accessible spot on the southwest side of Denver.  Townplace Suites has an ideal and centrally  located vantage point to Castlerock, Colorado Springs to the south, Boulder to the north and several highways.  Our room was quiet, spacious and well-equipped.  Littleton, Sheridan and Englewood are close and loaded with good food/ bars.  The staff was knowledgeable, attentive and pleasant.  They also made it easy for us to accommodate meeting a friend from out of town, plenty of room with the pullout couch. Four stars for a clean, beautiful and affordable stay.</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d125849-r275385541-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>275385541</t>
+  </si>
+  <si>
+    <t>05/28/2015</t>
+  </si>
+  <si>
+    <t>Nice and quiet stay</t>
+  </si>
+  <si>
+    <t>My husband and I stayed for 2 nights while on vacation. The full kitchen was great, loved having a freezer. It would come in super handy for long stays. This hotel is on the outskirts of the Denver area, nestled at the bottom of a foothill. If you're looking for something quiet, it's for you. The highway is easy to get to, so we found it perfectly convenient. The bed was comfortable and the air conditioner wasn't loud, breakfast was your average hotel fair. Would stay again.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d125849-r275075757-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
   </si>
   <si>
@@ -729,15 +1140,51 @@
     <t>Stayed there recently for a weekend college graduation. The hotel was very clean and quiet. Breakfast was fine with several choices.  Although we had a two bedroom suite,the room was not well stocked with supplies. We had a great view of the mountains. I would def stay there again.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d125849-r269934612-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>269934612</t>
+  </si>
+  <si>
+    <t>05/04/2015</t>
+  </si>
+  <si>
+    <t>Cancelled My Reservation</t>
+  </si>
+  <si>
+    <t>Marriott properties typically rock. Have been a Marriott Rewards member for 4 decades. Planning to thru-hike the Colorado Trail. This property is four miles from the starting trailhead. Early AM transportation to trailhead on Day 1 is mission critical. TownePlace management has demonstrated a "Can't Do attitude" via 2 phone calls. Made a personal visit several days ago to sort out trailhead transportation possibilities. Throughout conversation with the day manager  was multi-tasking 100% of the time. Frankly, it was rather rude being a customer and communicating while the he was vigorously typing on his keyboard. Particularly since no other customers were in line, in the lobby or preparing to enter the lobby. My impression, it seemed like I was invading his personal space. He offered no solutions other than to expect a 2+ hour wait after calling a cab.  I had to leave and was extremely disappointed. Thus I went downtown across the street from the Amtrak Station we will be arriving on and found a non-Marriott property that has the capability of ordering a town car for a specific time and date. Very, very disappointed with the TownePlace customer service. Failure to arrive at a solution is acceptable, not attempting to find one is not acceptable.  If you have no special needs, I'm sure the property achieves the TownePlace room standard set by Marriott. If you need customer service, this is their "Can't Do!" location.MoreShow less</t>
+  </si>
+  <si>
+    <t>TPSbyMarriott, General Manager at TownePlace Suites Denver Southwest/Littleton, responded to this reviewResponded May 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 6, 2015</t>
+  </si>
+  <si>
+    <t>Marriott properties typically rock. Have been a Marriott Rewards member for 4 decades. Planning to thru-hike the Colorado Trail. This property is four miles from the starting trailhead. Early AM transportation to trailhead on Day 1 is mission critical. TownePlace management has demonstrated a "Can't Do attitude" via 2 phone calls. Made a personal visit several days ago to sort out trailhead transportation possibilities. Throughout conversation with the day manager  was multi-tasking 100% of the time. Frankly, it was rather rude being a customer and communicating while the he was vigorously typing on his keyboard. Particularly since no other customers were in line, in the lobby or preparing to enter the lobby. My impression, it seemed like I was invading his personal space. He offered no solutions other than to expect a 2+ hour wait after calling a cab.  I had to leave and was extremely disappointed. Thus I went downtown across the street from the Amtrak Station we will be arriving on and found a non-Marriott property that has the capability of ordering a town car for a specific time and date. Very, very disappointed with the TownePlace customer service. Failure to arrive at a solution is acceptable, not attempting to find one is not acceptable.  If you have no special needs, I'm sure the property achieves the TownePlace room standard set by Marriott. If you need customer service, this is their "Can't Do!" location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d125849-r267218416-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>267218416</t>
+  </si>
+  <si>
+    <t>04/21/2015</t>
+  </si>
+  <si>
+    <t>Somewhat easy isolated</t>
+  </si>
+  <si>
+    <t>While this was very isolated, such as being far from Colorado's most popular attractions (Denver, skiing, Boulder, Sports Authority Field) it was convenient for us.  It's nice being close to highway, but not so close as to hear the traffic.  We had a late check in and we were accommodated, even gave us a view of the mountains.  I would stay again for the convenience and having a kitchen, but I certainly wouldn't make it my first choice.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d125849-r267032013-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
   </si>
   <si>
     <t>267032013</t>
   </si>
   <si>
-    <t>04/21/2015</t>
-  </si>
-  <si>
     <t>Clean, comfortable, modern rooms. Great breakfast!</t>
   </si>
   <si>
@@ -780,10 +1227,43 @@
     <t>The staff is accomodating and friendly, the hotel has been recently remodeled, it is very clean, the area is lovely with the proximitry to the mountains. there is plenty to do nearby, particularly if you have children or like to hike, the beds are comfortable.</t>
   </si>
   <si>
-    <t>April 2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled solo</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d125849-r259898302-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>259898302</t>
+  </si>
+  <si>
+    <t>03/16/2015</t>
+  </si>
+  <si>
+    <t>Jacob and Debra made our Christmas vacation the best we could hope for!</t>
+  </si>
+  <si>
+    <t>This review is a bit late but we spent last Christmas at this towneplace suites Marriott and had one of the best family vacations. Now I travel quite a bit and I stay at all categories of Marriott from JW Marriott to Courtyards and I’ve even stayed at a few Towneplace Suites. I didn’t have high expectation for this property but the service I received was on par with the top hotels of the likes of Ritz Carlton and St Regis. The breakfast was nothing fancy but Debra was attentive and extremely courteous. A few days we got to breakfast towards the end of closing and she was still very accommodating and did not rush us like other hotels. Jacob, the manager, went out of his way for us several times. We’ve natives to California so when it snowed; I didn’t have tools to clear the vehicle. Jacob spotted me scraping the snow off with a plastic packaging piece and offered to remove the rest of the snow with some plastic shovels that they had in the lobby. I knew he was busy mending to other guests in the hotel but still took time to stop and help. Thank you Jacob and Debra for taking care of my family. They are the people that helps build brand loyalty and great memories for life.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>This review is a bit late but we spent last Christmas at this towneplace suites Marriott and had one of the best family vacations. Now I travel quite a bit and I stay at all categories of Marriott from JW Marriott to Courtyards and I’ve even stayed at a few Towneplace Suites. I didn’t have high expectation for this property but the service I received was on par with the top hotels of the likes of Ritz Carlton and St Regis. The breakfast was nothing fancy but Debra was attentive and extremely courteous. A few days we got to breakfast towards the end of closing and she was still very accommodating and did not rush us like other hotels. Jacob, the manager, went out of his way for us several times. We’ve natives to California so when it snowed; I didn’t have tools to clear the vehicle. Jacob spotted me scraping the snow off with a plastic packaging piece and offered to remove the rest of the snow with some plastic shovels that they had in the lobby. I knew he was busy mending to other guests in the hotel but still took time to stop and help. Thank you Jacob and Debra for taking care of my family. They are the people that helps build brand loyalty and great memories for life.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d125849-r257192856-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>257192856</t>
+  </si>
+  <si>
+    <t>03/01/2015</t>
+  </si>
+  <si>
+    <t>nice place! thank you, Amanda!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice hotel; this is in a business area. About a mile away (under E-470) there are tons of eating places and a full-scale grocery store. TownePlaces have a full kitchen, stocked with cooking and eating utensils, also a dishwasher (so you know the dishes are actually clean). Quiet location, decent free breakfast, and great coffee. </t>
+  </si>
+  <si>
+    <t>February 2015</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d125849-r253528717-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
@@ -840,24 +1320,57 @@
     <t>October 2014</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d125849-r233350143-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>233350143</t>
+  </si>
+  <si>
+    <t>10/08/2014</t>
+  </si>
+  <si>
+    <t>Disappointing</t>
+  </si>
+  <si>
+    <t>We planned to stay here twice (going to and from another destination).  But we found another suites hotel for our return trip.  The hotel is older and tired looking (even though they said it was recently renovated).  The worst part was the noise -- our first suite was on the 1st floor near the stairs, and starting at 5:00 AM in one bedroom we could hear people going up and down the stairs, and then the outside door would (loudly) slam shut; and in the other bedroom we could hear an A/C condenser loudly turning on and off all night..  We asked for another room, and they gave us a room on the 2nd floor for the next few nights.  It was much quieter and we slept well. But it is not a pretty hotel...not what I expect of a Marriott....not a luxurious hotel suite by any means ...somewhat dark and dingy inside...just "average" .....  Lobby and breakfast area are small. Overpriced for what we got.  On the plus side: the staff were friendly and somewhat helpful, the towels were soft and a good size, the rooms were a fairly good size,  It was near lots of good resaurants and some shopping centers.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>We planned to stay here twice (going to and from another destination).  But we found another suites hotel for our return trip.  The hotel is older and tired looking (even though they said it was recently renovated).  The worst part was the noise -- our first suite was on the 1st floor near the stairs, and starting at 5:00 AM in one bedroom we could hear people going up and down the stairs, and then the outside door would (loudly) slam shut; and in the other bedroom we could hear an A/C condenser loudly turning on and off all night..  We asked for another room, and they gave us a room on the 2nd floor for the next few nights.  It was much quieter and we slept well. But it is not a pretty hotel...not what I expect of a Marriott....not a luxurious hotel suite by any means ...somewhat dark and dingy inside...just "average" .....  Lobby and breakfast area are small. Overpriced for what we got.  On the plus side: the staff were friendly and somewhat helpful, the towels were soft and a good size, the rooms were a fairly good size,  It was near lots of good resaurants and some shopping centers.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d125849-r233133783-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>233133783</t>
+  </si>
+  <si>
+    <t>10/07/2014</t>
+  </si>
+  <si>
+    <t>Made me feel right at home!</t>
+  </si>
+  <si>
+    <t>Just over the weekend a friend and I took a mini vacation to Denver and stayed at this hotel. We arrived a good 3 hours early and they had our room ready (very nice) The gentleman at the front desk was nice and full of information to help us on our way of fun things to do in the area. We got to our room and it was like a nice little apartment. Kitchen all set up with stove, fridge, dishwasher and even dishes to help with making meals if need be. I do have to say that the unfortunate problem we had was something happened to the water heater on our first stay, and we had no hot water to shower. BUT they did work fast and we were all good by the next morning. I would for recommend this hotel to anyone that came from out of town. To boot, we had an amazing view of a mountain in the back yard.MoreShow less</t>
+  </si>
+  <si>
+    <t>Just over the weekend a friend and I took a mini vacation to Denver and stayed at this hotel. We arrived a good 3 hours early and they had our room ready (very nice) The gentleman at the front desk was nice and full of information to help us on our way of fun things to do in the area. We got to our room and it was like a nice little apartment. Kitchen all set up with stove, fridge, dishwasher and even dishes to help with making meals if need be. I do have to say that the unfortunate problem we had was something happened to the water heater on our first stay, and we had no hot water to shower. BUT they did work fast and we were all good by the next morning. I would for recommend this hotel to anyone that came from out of town. To boot, we had an amazing view of a mountain in the back yard.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d125849-r233081994-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
   </si>
   <si>
     <t>233081994</t>
   </si>
   <si>
-    <t>10/07/2014</t>
-  </si>
-  <si>
     <t>Clean, secure, and friendly staff, and expensive!</t>
   </si>
   <si>
     <t>Clean room, good breakfast, and professional staff.  So many pillows on the bed.  Price was very high and I don't know why...nothing big was happening in the area.  Now I see way cheaper rooms.  I think I was ripped off.</t>
   </si>
   <si>
-    <t>September 2014</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d125849-r231687385-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
   </si>
   <si>
@@ -900,6 +1413,45 @@
     <t>Very comfortable accommodations. I am an Elite Marriott Member &amp; they upgraded us to a 2 BR Suite. Very courteous &amp; helpful staff. The Beds were comfortable. If I am in the area, I would love to stay there again.Sathyan ShivashankarMarriott Elite MemberMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d125849-r225196287-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>225196287</t>
+  </si>
+  <si>
+    <t>08/29/2014</t>
+  </si>
+  <si>
+    <t>Just AWFUL!</t>
+  </si>
+  <si>
+    <t>This hotel was just awful!  The rooms were small amd dirty, the staff was rude and obnoxious...do NOT STAY HERE!  Marriott should be ashamed of themselves to put their name on this disgraceful place.  It needs new management For starters.   The current ones couldn't supervise a kinder care let alone a hotel.   They are the rudest and most unprofessional group of people I have ever known.  There are many places to stay dont be a fool like me amd let this place ruin your vacation!   If you DO stay here and have an issue don't expect a refund or to get anything resolved.  If I could grade this zero I would. ..just awful!  Get with it Marriott and take your credible name off of these horrendous places!MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel was just awful!  The rooms were small amd dirty, the staff was rude and obnoxious...do NOT STAY HERE!  Marriott should be ashamed of themselves to put their name on this disgraceful place.  It needs new management For starters.   The current ones couldn't supervise a kinder care let alone a hotel.   They are the rudest and most unprofessional group of people I have ever known.  There are many places to stay dont be a fool like me amd let this place ruin your vacation!   If you DO stay here and have an issue don't expect a refund or to get anything resolved.  If I could grade this zero I would. ..just awful!  Get with it Marriott and take your credible name off of these horrendous places!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d125849-r224661090-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>224661090</t>
+  </si>
+  <si>
+    <t>08/26/2014</t>
+  </si>
+  <si>
+    <t>Beautiful Room with incredible space!</t>
+  </si>
+  <si>
+    <t>We are from St. Louis but my wife and I love spending time in Colorado.  This weekend we chose to stay near the town of Littleton.  We researched the hotels in the area and settled on this one.  What an awesome choose!  We got a great rate on a 2 bedroom suite with our AAA membership. For the two of us we didn't need this much space but it was really nice.  It was like renting a 2-bedroom condo.  It had a kitchen in it with dishes, microwave, full size refrigerator, and dishwasher.  It had a pool outside which was on the smaller side but well maintained.  There was plenty of parking also.  It's close access to the highway but far enough away that you don't hear noise.  Our only complaint was that my wife and I could not find a pillow that we liked!  It had tons of pillows but none to our liking.  So my advice would be to bring your own pillow if possible.  Overall this was a great hotel to stay in and you won't be disappointed!MoreShow less</t>
+  </si>
+  <si>
+    <t>Carla H, Manager at TownePlace Suites Denver Southwest/Littleton, responded to this reviewResponded September 4, 2014</t>
+  </si>
+  <si>
+    <t>We are from St. Louis but my wife and I love spending time in Colorado.  This weekend we chose to stay near the town of Littleton.  We researched the hotels in the area and settled on this one.  What an awesome choose!  We got a great rate on a 2 bedroom suite with our AAA membership. For the two of us we didn't need this much space but it was really nice.  It was like renting a 2-bedroom condo.  It had a kitchen in it with dishes, microwave, full size refrigerator, and dishwasher.  It had a pool outside which was on the smaller side but well maintained.  There was plenty of parking also.  It's close access to the highway but far enough away that you don't hear noise.  Our only complaint was that my wife and I could not find a pillow that we liked!  It had tons of pillows but none to our liking.  So my advice would be to bring your own pillow if possible.  Overall this was a great hotel to stay in and you won't be disappointed!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d125849-r220127387-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
   </si>
   <si>
@@ -918,9 +1470,6 @@
     <t>July 2014</t>
   </si>
   <si>
-    <t>Carla H, Manager at TownePlace Suites Denver Southwest/Littleton, responded to this reviewResponded September 4, 2014</t>
-  </si>
-  <si>
     <t>We stayed here overnight and were very pleased with our stay. We had a 2 bedroom suite and the rooms were clean and comfortable. The hotel staff was very professional and friendly. The area is very nice and away from it all. I have no complaints about the room. As far as the breakfast goes I did not eat anything and opted for a cup of coffee, our daughter had a bagel and my husband ate a waffle. It would have been nice if they offered more fruit besides apples. Overall, our experience was really great and I would stay there again.More</t>
   </si>
   <si>
@@ -958,6 +1507,57 @@
   </si>
   <si>
     <t>Wonderful staff from check in to check out!  Which makes a huge impression on our first visit.  Room was comfortable for family of 3.  The bed was comfortable. The views are amazing around the hotel.  Convenient to 470 - about a 20 minute drive to I-25.  Very pleased with our stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d125849-r212260940-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>212260940</t>
+  </si>
+  <si>
+    <t>06/26/2014</t>
+  </si>
+  <si>
+    <t>Very Bad Smell</t>
+  </si>
+  <si>
+    <t>Travel often, been using Trip Advisor for over 10 years, and this is my first review. Have only considered writing a bad review once before in all that time, so I'm not hard to please. Also am a Marriott Rewards member and stay at Marriott hotels often. Here with a large group. I arrived at 4:00 pm and waited in a long line to check in for close to an hour. My wife had arrived earlier in the day to check in and the room wasn't ready, so most of the groceries we had planned to refrigerate had to be thrown away. The desk staff handled the check-in rush well, and finally I was told our room was ready. Upon entering the room (#224), there was an unbearable odor that can only be describe as likely due to a dirty feminine hygiene product that had been left in the room for quite some time - I suspect many days. We actually searched the entire room trying to locate it. House keeping obviously noticed it because they had tried to cover it up with a large amount of air freshener which only made it worse. My wife was nauseated from altitude sickness and the odor was truly unbearable. When I called the desk to ask about changing rooms, all I was told was that they would call me back. Two hours later I called again and was told there were no...Travel often, been using Trip Advisor for over 10 years, and this is my first review. Have only considered writing a bad review once before in all that time, so I'm not hard to please. Also am a Marriott Rewards member and stay at Marriott hotels often. Here with a large group. I arrived at 4:00 pm and waited in a long line to check in for close to an hour. My wife had arrived earlier in the day to check in and the room wasn't ready, so most of the groceries we had planned to refrigerate had to be thrown away. The desk staff handled the check-in rush well, and finally I was told our room was ready. Upon entering the room (#224), there was an unbearable odor that can only be describe as likely due to a dirty feminine hygiene product that had been left in the room for quite some time - I suspect many days. We actually searched the entire room trying to locate it. House keeping obviously noticed it because they had tried to cover it up with a large amount of air freshener which only made it worse. My wife was nauseated from altitude sickness and the odor was truly unbearable. When I called the desk to ask about changing rooms, all I was told was that they would call me back. Two hours later I called again and was told there were no other rooms available. No apologies, no attempts to remedy our compensate, absolutely nothing. If it weren't already so late and we didn't have such an early start in the morning, I would seriously switch hotels. As other negative reviews have mentioned, the recent remodel did not include air conditioners (or the very hard beds - which I usually actually prefer). We finally turned off the air conditioner (which seemed to be where the odor was strongest) and opened the window and propped the door wide open to circulate some fresh air. It will be a noisy night with all the sounds from the parking lot thru the open window, but this is really the only way to make it tolerable. We will definitely be recommending another hotel for the participants of this large event next year. It's quite hard to believe all the other good reviews, so maybe our experience isn't the norm, but it's enough for us. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>Carla H, General Manager at TownePlace Suites Denver Southwest/Littleton, responded to this reviewResponded June 29, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 29, 2014</t>
+  </si>
+  <si>
+    <t>Travel often, been using Trip Advisor for over 10 years, and this is my first review. Have only considered writing a bad review once before in all that time, so I'm not hard to please. Also am a Marriott Rewards member and stay at Marriott hotels often. Here with a large group. I arrived at 4:00 pm and waited in a long line to check in for close to an hour. My wife had arrived earlier in the day to check in and the room wasn't ready, so most of the groceries we had planned to refrigerate had to be thrown away. The desk staff handled the check-in rush well, and finally I was told our room was ready. Upon entering the room (#224), there was an unbearable odor that can only be describe as likely due to a dirty feminine hygiene product that had been left in the room for quite some time - I suspect many days. We actually searched the entire room trying to locate it. House keeping obviously noticed it because they had tried to cover it up with a large amount of air freshener which only made it worse. My wife was nauseated from altitude sickness and the odor was truly unbearable. When I called the desk to ask about changing rooms, all I was told was that they would call me back. Two hours later I called again and was told there were no...Travel often, been using Trip Advisor for over 10 years, and this is my first review. Have only considered writing a bad review once before in all that time, so I'm not hard to please. Also am a Marriott Rewards member and stay at Marriott hotels often. Here with a large group. I arrived at 4:00 pm and waited in a long line to check in for close to an hour. My wife had arrived earlier in the day to check in and the room wasn't ready, so most of the groceries we had planned to refrigerate had to be thrown away. The desk staff handled the check-in rush well, and finally I was told our room was ready. Upon entering the room (#224), there was an unbearable odor that can only be describe as likely due to a dirty feminine hygiene product that had been left in the room for quite some time - I suspect many days. We actually searched the entire room trying to locate it. House keeping obviously noticed it because they had tried to cover it up with a large amount of air freshener which only made it worse. My wife was nauseated from altitude sickness and the odor was truly unbearable. When I called the desk to ask about changing rooms, all I was told was that they would call me back. Two hours later I called again and was told there were no other rooms available. No apologies, no attempts to remedy our compensate, absolutely nothing. If it weren't already so late and we didn't have such an early start in the morning, I would seriously switch hotels. As other negative reviews have mentioned, the recent remodel did not include air conditioners (or the very hard beds - which I usually actually prefer). We finally turned off the air conditioner (which seemed to be where the odor was strongest) and opened the window and propped the door wide open to circulate some fresh air. It will be a noisy night with all the sounds from the parking lot thru the open window, but this is really the only way to make it tolerable. We will definitely be recommending another hotel for the participants of this large event next year. It's quite hard to believe all the other good reviews, so maybe our experience isn't the norm, but it's enough for us. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d125849-r209344886-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
+  </si>
+  <si>
+    <t>209344886</t>
+  </si>
+  <si>
+    <t>06/07/2014</t>
+  </si>
+  <si>
+    <t>Friendly Staff, but some recent changes.....</t>
+  </si>
+  <si>
+    <t>My mother and I have been coming to this motel for over eight years for my mother’s follow-up visits with her cancer doctors and have always been extremely happy with the staff and motel facilities. We have always stayed in room # 103 and it has always been a great room. This year it was one of the last rooms being renovated and we wound up in Room #122, not so great.  This year the motel has been going thru a major renovation and is really looking nice, new kitchen equipment, new cabinets and carpet. BUT IT seems like management has not changed out the old air conditioners, these AC units are old and just don't work as well as they should. I hope that these are the next items to be replaced or upgraded. Breakfast was always decent in the past, but this year it was not quite up to par as in the past, I hope this was the exception and not the new standard!  And it was sad to hear of all of the old staff that had been working there for all of the years we have been staying were let go of by the new management. Andrea (Kitchen/Head of Housekeeping) was an exceptional worker and ALWAYS bent over backwards to assist us in ANYTHING we needed. SHE will be missed!MoreShow less</t>
+  </si>
+  <si>
+    <t>Todd D, General Manager at TownePlace Suites Denver Southwest/Littleton, responded to this reviewResponded June 10, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 10, 2014</t>
+  </si>
+  <si>
+    <t>My mother and I have been coming to this motel for over eight years for my mother’s follow-up visits with her cancer doctors and have always been extremely happy with the staff and motel facilities. We have always stayed in room # 103 and it has always been a great room. This year it was one of the last rooms being renovated and we wound up in Room #122, not so great.  This year the motel has been going thru a major renovation and is really looking nice, new kitchen equipment, new cabinets and carpet. BUT IT seems like management has not changed out the old air conditioners, these AC units are old and just don't work as well as they should. I hope that these are the next items to be replaced or upgraded. Breakfast was always decent in the past, but this year it was not quite up to par as in the past, I hope this was the exception and not the new standard!  And it was sad to hear of all of the old staff that had been working there for all of the years we have been staying were let go of by the new management. Andrea (Kitchen/Head of Housekeeping) was an exceptional worker and ALWAYS bent over backwards to assist us in ANYTHING we needed. SHE will be missed!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33524-d125849-r207957216-TownePlace_Suites_Denver_Southwest_Littleton-Littleton_Colorado.html</t>
@@ -1555,7 +2155,7 @@
         <v>50</v>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N2" t="s">
         <v>51</v>
@@ -1563,12 +2163,18 @@
       <c r="O2" t="s">
         <v>52</v>
       </c>
-      <c r="P2" t="s"/>
+      <c r="P2" t="n">
+        <v>3</v>
+      </c>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
+      <c r="S2" t="n">
+        <v>4</v>
+      </c>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -1612,25 +2218,25 @@
         <v>57</v>
       </c>
       <c r="M3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" t="s">
         <v>58</v>
       </c>
-      <c r="O3" t="s">
-        <v>59</v>
-      </c>
       <c r="P3" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q3" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3</v>
+      </c>
       <c r="R3" t="s"/>
-      <c r="S3" t="n">
-        <v>4</v>
-      </c>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -1638,7 +2244,7 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
@@ -1654,35 +2260,31 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
         <v>61</v>
       </c>
-      <c r="G4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>62</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>63</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>64</v>
       </c>
-      <c r="L4" t="s">
-        <v>65</v>
-      </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
-      <c r="N4" t="s">
-        <v>66</v>
-      </c>
-      <c r="O4" t="s">
-        <v>67</v>
-      </c>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
@@ -1695,7 +2297,7 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
@@ -1711,39 +2313,39 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" t="s">
         <v>68</v>
       </c>
-      <c r="G5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="L5" t="s">
         <v>69</v>
       </c>
-      <c r="J5" t="s">
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
         <v>70</v>
       </c>
-      <c r="K5" t="s">
+      <c r="O5" t="s">
         <v>71</v>
       </c>
-      <c r="L5" t="s">
-        <v>72</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>73</v>
-      </c>
-      <c r="O5" t="s">
-        <v>59</v>
-      </c>
-      <c r="P5" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q5" t="s"/>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>4</v>
+      </c>
       <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
@@ -1756,7 +2358,7 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6">
@@ -1772,54 +2374,48 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
         <v>74</v>
       </c>
-      <c r="G6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>75</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>76</v>
       </c>
-      <c r="K6" t="s">
-        <v>77</v>
-      </c>
-      <c r="L6" t="s">
-        <v>78</v>
-      </c>
       <c r="M6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="O6" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="P6" t="s"/>
-      <c r="Q6" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
-      <c r="S6" t="n">
-        <v>2</v>
-      </c>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>4</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7">
@@ -1835,41 +2431,47 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" t="s">
         <v>79</v>
       </c>
-      <c r="G7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>80</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>81</v>
       </c>
-      <c r="K7" t="s">
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
         <v>82</v>
       </c>
-      <c r="L7" t="s">
-        <v>83</v>
-      </c>
-      <c r="M7" t="n">
-        <v>4</v>
-      </c>
-      <c r="N7" t="s">
-        <v>73</v>
-      </c>
       <c r="O7" t="s">
-        <v>67</v>
-      </c>
-      <c r="P7" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
       <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
-      <c r="S7" t="s"/>
+      <c r="S7" t="n">
+        <v>4</v>
+      </c>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
@@ -1921,18 +2523,12 @@
       <c r="O8" t="s">
         <v>90</v>
       </c>
-      <c r="P8" t="n">
-        <v>3</v>
-      </c>
+      <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
-      <c r="R8" t="n">
-        <v>4</v>
-      </c>
+      <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>4</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
@@ -1979,19 +2575,19 @@
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="O9" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="P9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q9" t="s"/>
-      <c r="R9" t="s"/>
-      <c r="S9" t="n">
-        <v>4</v>
-      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
         <v>4</v>
@@ -2018,34 +2614,34 @@
         <v>43</v>
       </c>
       <c r="F10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10" t="s">
+        <v>100</v>
+      </c>
+      <c r="L10" t="s">
+        <v>101</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
         <v>96</v>
       </c>
-      <c r="G10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10" t="s">
-        <v>97</v>
-      </c>
-      <c r="J10" t="s">
-        <v>98</v>
-      </c>
-      <c r="K10" t="s">
-        <v>99</v>
-      </c>
-      <c r="L10" t="s">
-        <v>100</v>
-      </c>
-      <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s">
-        <v>89</v>
-      </c>
       <c r="O10" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2096,23 +2692,23 @@
         <v>106</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N11" t="s">
         <v>107</v>
       </c>
       <c r="O11" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="P11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -2157,27 +2753,33 @@
         <v>112</v>
       </c>
       <c r="M12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="O12" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="P12" t="s"/>
-      <c r="Q12" t="s"/>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
       <c r="R12" t="s"/>
-      <c r="S12" t="s"/>
+      <c r="S12" t="n">
+        <v>2</v>
+      </c>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13">
@@ -2193,34 +2795,34 @@
         <v>43</v>
       </c>
       <c r="F13" t="s">
+        <v>113</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>114</v>
+      </c>
+      <c r="J13" t="s">
         <v>115</v>
       </c>
-      <c r="G13" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" t="s">
-        <v>46</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="K13" t="s">
         <v>116</v>
       </c>
-      <c r="J13" t="s">
+      <c r="L13" t="s">
         <v>117</v>
       </c>
-      <c r="K13" t="s">
-        <v>118</v>
-      </c>
-      <c r="L13" t="s">
-        <v>119</v>
-      </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="O13" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2234,7 +2836,7 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14">
@@ -2250,54 +2852,48 @@
         <v>43</v>
       </c>
       <c r="F14" t="s">
+        <v>118</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>119</v>
+      </c>
+      <c r="J14" t="s">
+        <v>120</v>
+      </c>
+      <c r="K14" t="s">
         <v>121</v>
       </c>
-      <c r="G14" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" t="s">
-        <v>46</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="L14" t="s">
         <v>122</v>
       </c>
-      <c r="J14" t="s">
-        <v>123</v>
-      </c>
-      <c r="K14" t="s">
-        <v>124</v>
-      </c>
-      <c r="L14" t="s">
-        <v>125</v>
-      </c>
       <c r="M14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="O14" t="s">
-        <v>59</v>
-      </c>
-      <c r="P14" t="n">
-        <v>4</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
-      <c r="S14" t="n">
-        <v>4</v>
-      </c>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>3</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15">
@@ -2313,52 +2909,56 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
+        <v>123</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>124</v>
+      </c>
+      <c r="J15" t="s">
+        <v>125</v>
+      </c>
+      <c r="K15" t="s">
         <v>126</v>
       </c>
-      <c r="G15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" t="s">
-        <v>46</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="L15" t="s">
         <v>127</v>
       </c>
-      <c r="J15" t="s">
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
         <v>128</v>
       </c>
-      <c r="K15" t="s">
+      <c r="O15" t="s">
         <v>129</v>
       </c>
-      <c r="L15" t="s">
-        <v>130</v>
-      </c>
-      <c r="M15" t="n">
-        <v>5</v>
-      </c>
-      <c r="N15" t="s">
-        <v>131</v>
-      </c>
-      <c r="O15" t="s">
-        <v>52</v>
-      </c>
-      <c r="P15" t="n">
-        <v>5</v>
-      </c>
+      <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
-      <c r="S15" t="s"/>
+      <c r="S15" t="n">
+        <v>1</v>
+      </c>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
+      <c r="W15" t="s">
+        <v>130</v>
+      </c>
+      <c r="X15" t="s">
+        <v>131</v>
+      </c>
       <c r="Y15" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16">
@@ -2374,7 +2974,7 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G16" t="s">
         <v>45</v>
@@ -2383,33 +2983,33 @@
         <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K16" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O16" t="s">
         <v>52</v>
       </c>
       <c r="P16" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>4</v>
-      </c>
-      <c r="R16" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
@@ -2421,7 +3021,7 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17">
@@ -2437,56 +3037,54 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
+        <v>139</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>140</v>
+      </c>
+      <c r="J17" t="s">
+        <v>141</v>
+      </c>
+      <c r="K17" t="s">
+        <v>142</v>
+      </c>
+      <c r="L17" t="s">
+        <v>143</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
         <v>138</v>
       </c>
-      <c r="G17" t="s">
-        <v>45</v>
-      </c>
-      <c r="H17" t="s">
-        <v>46</v>
-      </c>
-      <c r="I17" t="s">
-        <v>139</v>
-      </c>
-      <c r="J17" t="s">
-        <v>140</v>
-      </c>
-      <c r="K17" t="s">
-        <v>141</v>
-      </c>
-      <c r="L17" t="s">
-        <v>142</v>
-      </c>
-      <c r="M17" t="n">
+      <c r="O17" t="s">
+        <v>90</v>
+      </c>
+      <c r="P17" t="n">
         <v>3</v>
       </c>
-      <c r="N17" t="s">
-        <v>143</v>
-      </c>
-      <c r="O17" t="s">
-        <v>67</v>
-      </c>
-      <c r="P17" t="s"/>
-      <c r="Q17" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
-      <c r="S17" t="s"/>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s">
-        <v>144</v>
-      </c>
-      <c r="X17" t="s">
-        <v>145</v>
-      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18">
@@ -2502,54 +3100,48 @@
         <v>43</v>
       </c>
       <c r="F18" t="s">
+        <v>144</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>145</v>
+      </c>
+      <c r="J18" t="s">
+        <v>146</v>
+      </c>
+      <c r="K18" t="s">
         <v>147</v>
       </c>
-      <c r="G18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H18" t="s">
-        <v>46</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="L18" t="s">
         <v>148</v>
       </c>
-      <c r="J18" t="s">
-        <v>149</v>
-      </c>
-      <c r="K18" t="s">
-        <v>150</v>
-      </c>
-      <c r="L18" t="s">
-        <v>151</v>
-      </c>
       <c r="M18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="O18" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="P18" t="s"/>
-      <c r="Q18" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
-      <c r="S18" t="n">
-        <v>4</v>
-      </c>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>4</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19">
@@ -2565,52 +3157,54 @@
         <v>43</v>
       </c>
       <c r="F19" t="s">
+        <v>150</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>151</v>
+      </c>
+      <c r="J19" t="s">
+        <v>152</v>
+      </c>
+      <c r="K19" t="s">
         <v>153</v>
       </c>
-      <c r="G19" t="s">
-        <v>45</v>
-      </c>
-      <c r="H19" t="s">
-        <v>46</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="L19" t="s">
         <v>154</v>
       </c>
-      <c r="J19" t="s">
-        <v>149</v>
-      </c>
-      <c r="K19" t="s">
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
         <v>155</v>
       </c>
-      <c r="L19" t="s">
-        <v>156</v>
-      </c>
-      <c r="M19" t="n">
-        <v>2</v>
-      </c>
-      <c r="N19" t="s">
-        <v>137</v>
-      </c>
       <c r="O19" t="s">
-        <v>67</v>
-      </c>
-      <c r="P19" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
       <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
-      <c r="S19" t="s"/>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
       <c r="T19" t="s"/>
-      <c r="U19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s">
-        <v>157</v>
-      </c>
-      <c r="X19" t="s">
-        <v>158</v>
-      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20">
@@ -2626,58 +3220,52 @@
         <v>43</v>
       </c>
       <c r="F20" t="s">
+        <v>157</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>158</v>
+      </c>
+      <c r="J20" t="s">
+        <v>159</v>
+      </c>
+      <c r="K20" t="s">
         <v>160</v>
       </c>
-      <c r="G20" t="s">
-        <v>45</v>
-      </c>
-      <c r="H20" t="s">
-        <v>46</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="L20" t="s">
         <v>161</v>
       </c>
-      <c r="J20" t="s">
-        <v>162</v>
-      </c>
-      <c r="K20" t="s">
-        <v>163</v>
-      </c>
-      <c r="L20" t="s">
-        <v>164</v>
-      </c>
       <c r="M20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="O20" t="s">
-        <v>67</v>
-      </c>
-      <c r="P20" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q20" t="s"/>
-      <c r="R20" t="n">
-        <v>3</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="s"/>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s">
-        <v>165</v>
-      </c>
-      <c r="X20" t="s">
-        <v>166</v>
-      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21">
@@ -2693,7 +3281,7 @@
         <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="G21" t="s">
         <v>45</v>
@@ -2702,37 +3290,35 @@
         <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="J21" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="K21" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="L21" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="O21" t="s">
-        <v>67</v>
-      </c>
-      <c r="P21" t="s"/>
-      <c r="Q21" t="n">
-        <v>5</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q21" t="s"/>
       <c r="R21" t="s"/>
-      <c r="S21" t="n">
-        <v>5</v>
-      </c>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2740,7 +3326,7 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22">
@@ -2756,7 +3342,7 @@
         <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G22" t="s">
         <v>45</v>
@@ -2765,25 +3351,25 @@
         <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="J22" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="K22" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="L22" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="M22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="O22" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -2794,14 +3380,10 @@
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s">
-        <v>179</v>
-      </c>
-      <c r="X22" t="s">
-        <v>180</v>
-      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23">
@@ -2817,7 +3399,7 @@
         <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G23" t="s">
         <v>45</v>
@@ -2826,25 +3408,25 @@
         <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="J23" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="K23" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="L23" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="M23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="O23" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -2855,14 +3437,10 @@
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s">
-        <v>188</v>
-      </c>
-      <c r="X23" t="s">
-        <v>189</v>
-      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24">
@@ -2878,7 +3456,7 @@
         <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="G24" t="s">
         <v>45</v>
@@ -2887,26 +3465,22 @@
         <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="J24" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="K24" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="L24" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="M24" t="n">
-        <v>5</v>
-      </c>
-      <c r="N24" t="s">
-        <v>196</v>
-      </c>
-      <c r="O24" t="s">
-        <v>59</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N24" t="s"/>
+      <c r="O24" t="s"/>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
       <c r="R24" t="s"/>
@@ -2919,7 +3493,7 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25">
@@ -2935,7 +3509,7 @@
         <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="G25" t="s">
         <v>45</v>
@@ -2944,45 +3518,43 @@
         <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="J25" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="K25" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="L25" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="M25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="O25" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="P25" t="s"/>
-      <c r="Q25" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q25" t="s"/>
       <c r="R25" t="s"/>
-      <c r="S25" t="n">
-        <v>5</v>
-      </c>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>5</v>
-      </c>
+      <c r="U25" t="s"/>
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s"/>
-      <c r="X25" t="s"/>
+      <c r="W25" t="s">
+        <v>191</v>
+      </c>
+      <c r="X25" t="s">
+        <v>192</v>
+      </c>
       <c r="Y25" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="26">
@@ -2998,7 +3570,7 @@
         <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="G26" t="s">
         <v>45</v>
@@ -3007,35 +3579,37 @@
         <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="J26" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="K26" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="L26" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="M26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>208</v>
+        <v>179</v>
       </c>
       <c r="O26" t="s">
-        <v>59</v>
-      </c>
-      <c r="P26" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
       <c r="Q26" t="s"/>
-      <c r="R26" t="n">
-        <v>5</v>
-      </c>
-      <c r="S26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -3043,7 +3617,7 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
     </row>
     <row r="27">
@@ -3059,7 +3633,7 @@
         <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="G27" t="s">
         <v>45</v>
@@ -3068,37 +3642,35 @@
         <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="J27" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="K27" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="L27" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="O27" t="s">
-        <v>52</v>
-      </c>
-      <c r="P27" t="s"/>
-      <c r="Q27" t="n">
-        <v>5</v>
-      </c>
-      <c r="R27" t="n">
-        <v>4</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
       <c r="S27" t="s"/>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -3106,7 +3678,7 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28">
@@ -3122,7 +3694,7 @@
         <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="G28" t="s">
         <v>45</v>
@@ -3131,34 +3703,34 @@
         <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="J28" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="K28" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="L28" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="O28" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="P28" t="n">
         <v>4</v>
       </c>
-      <c r="Q28" t="s"/>
+      <c r="Q28" t="n">
+        <v>4</v>
+      </c>
       <c r="R28" t="s"/>
-      <c r="S28" t="n">
-        <v>5</v>
-      </c>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
         <v>4</v>
@@ -3169,7 +3741,7 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
     </row>
     <row r="29">
@@ -3185,7 +3757,7 @@
         <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="G29" t="s">
         <v>45</v>
@@ -3194,39 +3766,45 @@
         <v>46</v>
       </c>
       <c r="I29" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="J29" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="K29" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="L29" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="O29" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="P29" t="s"/>
-      <c r="Q29" t="s"/>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
       <c r="R29" t="s"/>
-      <c r="S29" t="s"/>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
       <c r="T29" t="s"/>
-      <c r="U29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
     </row>
     <row r="30">
@@ -3242,7 +3820,7 @@
         <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="G30" t="s">
         <v>45</v>
@@ -3251,45 +3829,39 @@
         <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="J30" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="K30" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="L30" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="M30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="O30" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="P30" t="s"/>
-      <c r="Q30" t="n">
-        <v>4</v>
-      </c>
-      <c r="R30" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
       <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="n">
-        <v>3</v>
-      </c>
+      <c r="U30" t="s"/>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
     </row>
     <row r="31">
@@ -3305,7 +3877,7 @@
         <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="G31" t="s">
         <v>45</v>
@@ -3314,39 +3886,47 @@
         <v>46</v>
       </c>
       <c r="I31" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="J31" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="K31" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="L31" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="M31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="O31" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="P31" t="s"/>
-      <c r="Q31" t="s"/>
+      <c r="Q31" t="n">
+        <v>3</v>
+      </c>
       <c r="R31" t="s"/>
       <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s"/>
-      <c r="X31" t="s"/>
+      <c r="W31" t="s">
+        <v>227</v>
+      </c>
+      <c r="X31" t="s">
+        <v>228</v>
+      </c>
       <c r="Y31" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="32">
@@ -3362,7 +3942,7 @@
         <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="G32" t="s">
         <v>45</v>
@@ -3371,35 +3951,37 @@
         <v>46</v>
       </c>
       <c r="I32" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="J32" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="K32" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="L32" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="M32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="O32" t="s">
-        <v>52</v>
-      </c>
-      <c r="P32" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q32" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
       <c r="R32" t="s"/>
-      <c r="S32" t="s"/>
+      <c r="S32" t="n">
+        <v>4</v>
+      </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3407,7 +3989,7 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
     </row>
     <row r="33">
@@ -3423,7 +4005,7 @@
         <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="G33" t="s">
         <v>45</v>
@@ -3432,45 +4014,43 @@
         <v>46</v>
       </c>
       <c r="I33" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="J33" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="K33" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="L33" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="M33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N33" t="s">
+        <v>210</v>
+      </c>
+      <c r="O33" t="s">
+        <v>90</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>240</v>
+      </c>
+      <c r="X33" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y33" t="s">
         <v>242</v>
-      </c>
-      <c r="O33" t="s">
-        <v>52</v>
-      </c>
-      <c r="P33" t="s"/>
-      <c r="Q33" t="n">
-        <v>5</v>
-      </c>
-      <c r="R33" t="s"/>
-      <c r="S33" t="n">
-        <v>5</v>
-      </c>
-      <c r="T33" t="s"/>
-      <c r="U33" t="n">
-        <v>5</v>
-      </c>
-      <c r="V33" t="n">
-        <v>0</v>
-      </c>
-      <c r="W33" t="s"/>
-      <c r="X33" t="s"/>
-      <c r="Y33" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="34">
@@ -3486,7 +4066,7 @@
         <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="G34" t="s">
         <v>45</v>
@@ -3495,35 +4075,35 @@
         <v>46</v>
       </c>
       <c r="I34" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="J34" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="K34" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="L34" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="M34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>254</v>
+        <v>226</v>
       </c>
       <c r="O34" t="s">
-        <v>255</v>
+        <v>90</v>
       </c>
       <c r="P34" t="s"/>
-      <c r="Q34" t="s"/>
-      <c r="R34" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q34" t="n">
+        <v>3</v>
+      </c>
+      <c r="R34" t="s"/>
       <c r="S34" t="s"/>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3531,7 +4111,7 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="35">
@@ -3547,7 +4127,7 @@
         <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="G35" t="s">
         <v>45</v>
@@ -3556,22 +4136,26 @@
         <v>46</v>
       </c>
       <c r="I35" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="J35" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="K35" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="L35" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="M35" t="n">
-        <v>4</v>
-      </c>
-      <c r="N35" t="s"/>
-      <c r="O35" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>235</v>
+      </c>
+      <c r="O35" t="s">
+        <v>90</v>
+      </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
       <c r="R35" t="s"/>
@@ -3584,7 +4168,7 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="36">
@@ -3600,7 +4184,7 @@
         <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="G36" t="s">
         <v>45</v>
@@ -3609,43 +4193,49 @@
         <v>46</v>
       </c>
       <c r="I36" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="J36" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="K36" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="L36" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="M36" t="n">
         <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>266</v>
+        <v>226</v>
       </c>
       <c r="O36" t="s">
-        <v>59</v>
-      </c>
-      <c r="P36" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="P36" t="n">
+        <v>3</v>
+      </c>
       <c r="Q36" t="s"/>
       <c r="R36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S36" t="s"/>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s"/>
-      <c r="X36" t="s"/>
+      <c r="W36" t="s">
+        <v>259</v>
+      </c>
+      <c r="X36" t="s">
+        <v>260</v>
+      </c>
       <c r="Y36" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="37">
@@ -3661,7 +4251,7 @@
         <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="G37" t="s">
         <v>45</v>
@@ -3670,39 +4260,45 @@
         <v>46</v>
       </c>
       <c r="I37" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="J37" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="K37" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="L37" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="M37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>273</v>
+        <v>226</v>
       </c>
       <c r="O37" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="P37" t="s"/>
-      <c r="Q37" t="s"/>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
       <c r="R37" t="s"/>
-      <c r="S37" t="s"/>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
       <c r="T37" t="s"/>
-      <c r="U37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="38">
@@ -3718,7 +4314,7 @@
         <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="G38" t="s">
         <v>45</v>
@@ -3727,25 +4323,25 @@
         <v>46</v>
       </c>
       <c r="I38" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="J38" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="K38" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="L38" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="M38" t="n">
         <v>3</v>
       </c>
       <c r="N38" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="O38" t="s">
-        <v>255</v>
+        <v>71</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -3756,10 +4352,14 @@
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="s"/>
-      <c r="X38" t="s"/>
+      <c r="W38" t="s">
+        <v>273</v>
+      </c>
+      <c r="X38" t="s">
+        <v>274</v>
+      </c>
       <c r="Y38" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="39">
@@ -3775,52 +4375,50 @@
         <v>43</v>
       </c>
       <c r="F39" t="s">
+        <v>276</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>277</v>
+      </c>
+      <c r="J39" t="s">
+        <v>278</v>
+      </c>
+      <c r="K39" t="s">
+        <v>279</v>
+      </c>
+      <c r="L39" t="s">
         <v>280</v>
       </c>
-      <c r="G39" t="s">
-        <v>45</v>
-      </c>
-      <c r="H39" t="s">
-        <v>46</v>
-      </c>
-      <c r="I39" t="s">
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s">
         <v>281</v>
       </c>
-      <c r="J39" t="s">
+      <c r="O39" t="s">
+        <v>71</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
         <v>282</v>
       </c>
-      <c r="K39" t="s">
+      <c r="X39" t="s">
         <v>283</v>
       </c>
-      <c r="L39" t="s">
-        <v>284</v>
-      </c>
-      <c r="M39" t="n">
-        <v>5</v>
-      </c>
-      <c r="N39" t="s"/>
-      <c r="O39" t="s"/>
-      <c r="P39" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>5</v>
-      </c>
-      <c r="R39" t="n">
-        <v>5</v>
-      </c>
-      <c r="S39" t="n">
-        <v>5</v>
-      </c>
-      <c r="T39" t="s"/>
-      <c r="U39" t="n">
-        <v>5</v>
-      </c>
-      <c r="V39" t="n">
-        <v>0</v>
-      </c>
-      <c r="W39" t="s"/>
-      <c r="X39" t="s"/>
       <c r="Y39" t="s">
         <v>284</v>
       </c>
@@ -3859,37 +4457,35 @@
         <v>289</v>
       </c>
       <c r="M40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N40" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="O40" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="P40" t="s"/>
-      <c r="Q40" t="s"/>
-      <c r="R40" t="n">
-        <v>4</v>
-      </c>
-      <c r="S40" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s">
+        <v>290</v>
+      </c>
+      <c r="X40" t="s">
         <v>291</v>
       </c>
-      <c r="X40" t="s">
+      <c r="Y40" t="s">
         <v>292</v>
-      </c>
-      <c r="Y40" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="41">
@@ -3905,55 +4501,49 @@
         <v>43</v>
       </c>
       <c r="F41" t="s">
+        <v>293</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
         <v>294</v>
       </c>
-      <c r="G41" t="s">
-        <v>45</v>
-      </c>
-      <c r="H41" t="s">
-        <v>46</v>
-      </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
         <v>295</v>
       </c>
-      <c r="J41" t="s">
+      <c r="K41" t="s">
         <v>296</v>
       </c>
-      <c r="K41" t="s">
+      <c r="L41" t="s">
         <v>297</v>
       </c>
-      <c r="L41" t="s">
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
         <v>298</v>
       </c>
-      <c r="M41" t="n">
-        <v>4</v>
-      </c>
-      <c r="N41" t="s">
-        <v>299</v>
-      </c>
       <c r="O41" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="P41" t="s"/>
-      <c r="Q41" t="n">
-        <v>4</v>
-      </c>
-      <c r="R41" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
       <c r="S41" t="s"/>
       <c r="T41" t="s"/>
-      <c r="U41" t="n">
-        <v>4</v>
-      </c>
+      <c r="U41" t="s"/>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="s">
+        <v>299</v>
+      </c>
+      <c r="X41" t="s">
         <v>300</v>
-      </c>
-      <c r="X41" t="s">
-        <v>292</v>
       </c>
       <c r="Y41" t="s">
         <v>301</v>
@@ -3993,35 +4583,27 @@
         <v>306</v>
       </c>
       <c r="M42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="O42" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
-      <c r="R42" t="n">
-        <v>5</v>
-      </c>
+      <c r="R42" t="s"/>
       <c r="S42" t="s"/>
       <c r="T42" t="s"/>
-      <c r="U42" t="n">
-        <v>5</v>
-      </c>
+      <c r="U42" t="s"/>
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s">
-        <v>300</v>
-      </c>
-      <c r="X42" t="s">
-        <v>292</v>
-      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="43">
@@ -4058,31 +4640,33 @@
         <v>312</v>
       </c>
       <c r="M43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="O43" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="P43" t="s"/>
-      <c r="Q43" t="s"/>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
       <c r="R43" t="s"/>
-      <c r="S43" t="s"/>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
       <c r="T43" t="s"/>
-      <c r="U43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s">
-        <v>300</v>
-      </c>
-      <c r="X43" t="s">
-        <v>292</v>
-      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="44">
@@ -4119,41 +4703,33 @@
         <v>318</v>
       </c>
       <c r="M44" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N44" t="s">
         <v>319</v>
       </c>
       <c r="O44" t="s">
-        <v>59</v>
-      </c>
-      <c r="P44" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>4</v>
-      </c>
-      <c r="R44" t="n">
-        <v>5</v>
-      </c>
-      <c r="S44" t="n">
-        <v>4</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="X44" t="s">
-        <v>292</v>
+        <v>321</v>
       </c>
       <c r="Y44" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="45">
@@ -4169,7 +4745,7 @@
         <v>43</v>
       </c>
       <c r="F45" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="G45" t="s">
         <v>45</v>
@@ -4178,53 +4754,41 @@
         <v>46</v>
       </c>
       <c r="I45" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="J45" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K45" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="L45" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="M45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="O45" t="s">
-        <v>59</v>
-      </c>
-      <c r="P45" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>4</v>
-      </c>
-      <c r="R45" t="n">
-        <v>4</v>
-      </c>
-      <c r="S45" t="n">
-        <v>4</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s">
-        <v>300</v>
-      </c>
-      <c r="X45" t="s">
-        <v>292</v>
-      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="46">
@@ -4240,7 +4804,7 @@
         <v>43</v>
       </c>
       <c r="F46" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G46" t="s">
         <v>45</v>
@@ -4249,38 +4813,32 @@
         <v>46</v>
       </c>
       <c r="I46" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="J46" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K46" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L46" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O46" t="s">
-        <v>255</v>
-      </c>
-      <c r="P46" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>5</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
       <c r="R46" t="n">
         <v>5</v>
       </c>
-      <c r="S46" t="n">
-        <v>5</v>
-      </c>
+      <c r="S46" t="s"/>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
         <v>5</v>
@@ -4288,14 +4846,1990 @@
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s">
-        <v>300</v>
-      </c>
-      <c r="X46" t="s">
-        <v>292</v>
-      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>334</v>
+        <v>333</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>39832</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>335</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>336</v>
+      </c>
+      <c r="J47" t="s">
+        <v>337</v>
+      </c>
+      <c r="K47" t="s">
+        <v>338</v>
+      </c>
+      <c r="L47" t="s">
+        <v>339</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>340</v>
+      </c>
+      <c r="O47" t="s">
+        <v>58</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>39832</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>341</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>342</v>
+      </c>
+      <c r="J48" t="s">
+        <v>343</v>
+      </c>
+      <c r="K48" t="s">
+        <v>344</v>
+      </c>
+      <c r="L48" t="s">
+        <v>345</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>346</v>
+      </c>
+      <c r="O48" t="s">
+        <v>58</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>39832</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>348</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>349</v>
+      </c>
+      <c r="J49" t="s">
+        <v>350</v>
+      </c>
+      <c r="K49" t="s">
+        <v>351</v>
+      </c>
+      <c r="L49" t="s">
+        <v>352</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>353</v>
+      </c>
+      <c r="O49" t="s">
+        <v>52</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>39832</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>354</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>355</v>
+      </c>
+      <c r="J50" t="s">
+        <v>356</v>
+      </c>
+      <c r="K50" t="s">
+        <v>357</v>
+      </c>
+      <c r="L50" t="s">
+        <v>358</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s"/>
+      <c r="O50" t="s"/>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>39832</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>359</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>360</v>
+      </c>
+      <c r="J51" t="s">
+        <v>361</v>
+      </c>
+      <c r="K51" t="s">
+        <v>362</v>
+      </c>
+      <c r="L51" t="s">
+        <v>363</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>346</v>
+      </c>
+      <c r="O51" t="s">
+        <v>90</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>39832</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>364</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>365</v>
+      </c>
+      <c r="J52" t="s">
+        <v>366</v>
+      </c>
+      <c r="K52" t="s">
+        <v>367</v>
+      </c>
+      <c r="L52" t="s">
+        <v>368</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>346</v>
+      </c>
+      <c r="O52" t="s">
+        <v>90</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>3</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>39832</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>369</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>370</v>
+      </c>
+      <c r="J53" t="s">
+        <v>371</v>
+      </c>
+      <c r="K53" t="s">
+        <v>372</v>
+      </c>
+      <c r="L53" t="s">
+        <v>373</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>346</v>
+      </c>
+      <c r="O53" t="s">
+        <v>90</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>39832</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>374</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>375</v>
+      </c>
+      <c r="J54" t="s">
+        <v>376</v>
+      </c>
+      <c r="K54" t="s">
+        <v>377</v>
+      </c>
+      <c r="L54" t="s">
+        <v>378</v>
+      </c>
+      <c r="M54" t="n">
+        <v>2</v>
+      </c>
+      <c r="N54" t="s">
+        <v>353</v>
+      </c>
+      <c r="O54" t="s">
+        <v>71</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>1</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>379</v>
+      </c>
+      <c r="X54" t="s">
+        <v>380</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>39832</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>382</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>383</v>
+      </c>
+      <c r="J55" t="s">
+        <v>384</v>
+      </c>
+      <c r="K55" t="s">
+        <v>385</v>
+      </c>
+      <c r="L55" t="s">
+        <v>386</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>353</v>
+      </c>
+      <c r="O55" t="s">
+        <v>58</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>39832</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>387</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s">
+        <v>388</v>
+      </c>
+      <c r="J56" t="s">
+        <v>384</v>
+      </c>
+      <c r="K56" t="s">
+        <v>389</v>
+      </c>
+      <c r="L56" t="s">
+        <v>390</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>391</v>
+      </c>
+      <c r="O56" t="s">
+        <v>58</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>39832</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>393</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
+        <v>394</v>
+      </c>
+      <c r="J57" t="s">
+        <v>395</v>
+      </c>
+      <c r="K57" t="s">
+        <v>396</v>
+      </c>
+      <c r="L57" t="s">
+        <v>397</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>391</v>
+      </c>
+      <c r="O57" t="s">
+        <v>58</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="s"/>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>39832</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>398</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s">
+        <v>399</v>
+      </c>
+      <c r="J58" t="s">
+        <v>400</v>
+      </c>
+      <c r="K58" t="s">
+        <v>401</v>
+      </c>
+      <c r="L58" t="s">
+        <v>402</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>353</v>
+      </c>
+      <c r="O58" t="s">
+        <v>129</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>39832</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s">
+        <v>403</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s">
+        <v>404</v>
+      </c>
+      <c r="J59" t="s">
+        <v>405</v>
+      </c>
+      <c r="K59" t="s">
+        <v>406</v>
+      </c>
+      <c r="L59" t="s">
+        <v>407</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>408</v>
+      </c>
+      <c r="O59" t="s">
+        <v>90</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>39832</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s">
+        <v>410</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" t="s">
+        <v>411</v>
+      </c>
+      <c r="J60" t="s">
+        <v>412</v>
+      </c>
+      <c r="K60" t="s">
+        <v>413</v>
+      </c>
+      <c r="L60" t="s">
+        <v>414</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>415</v>
+      </c>
+      <c r="O60" t="s">
+        <v>52</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="s"/>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>39832</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s">
+        <v>416</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" t="s">
+        <v>417</v>
+      </c>
+      <c r="J61" t="s">
+        <v>418</v>
+      </c>
+      <c r="K61" t="s">
+        <v>419</v>
+      </c>
+      <c r="L61" t="s">
+        <v>420</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s"/>
+      <c r="O61" t="s"/>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="s"/>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>39832</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s">
+        <v>421</v>
+      </c>
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" t="s">
+        <v>422</v>
+      </c>
+      <c r="J62" t="s">
+        <v>423</v>
+      </c>
+      <c r="K62" t="s">
+        <v>424</v>
+      </c>
+      <c r="L62" t="s">
+        <v>425</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3</v>
+      </c>
+      <c r="N62" t="s">
+        <v>426</v>
+      </c>
+      <c r="O62" t="s">
+        <v>71</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>39832</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" t="s">
+        <v>428</v>
+      </c>
+      <c r="G63" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" t="s">
+        <v>429</v>
+      </c>
+      <c r="J63" t="s">
+        <v>430</v>
+      </c>
+      <c r="K63" t="s">
+        <v>431</v>
+      </c>
+      <c r="L63" t="s">
+        <v>432</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>433</v>
+      </c>
+      <c r="O63" t="s">
+        <v>90</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="s"/>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>39832</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" t="s">
+        <v>434</v>
+      </c>
+      <c r="G64" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" t="s">
+        <v>435</v>
+      </c>
+      <c r="J64" t="s">
+        <v>436</v>
+      </c>
+      <c r="K64" t="s">
+        <v>437</v>
+      </c>
+      <c r="L64" t="s">
+        <v>438</v>
+      </c>
+      <c r="M64" t="n">
+        <v>2</v>
+      </c>
+      <c r="N64" t="s">
+        <v>439</v>
+      </c>
+      <c r="O64" t="s">
+        <v>90</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="n">
+        <v>2</v>
+      </c>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>3</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>39832</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" t="s">
+        <v>441</v>
+      </c>
+      <c r="G65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" t="s">
+        <v>442</v>
+      </c>
+      <c r="J65" t="s">
+        <v>443</v>
+      </c>
+      <c r="K65" t="s">
+        <v>444</v>
+      </c>
+      <c r="L65" t="s">
+        <v>445</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>433</v>
+      </c>
+      <c r="O65" t="s">
+        <v>52</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>4</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>39832</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" t="s">
+        <v>447</v>
+      </c>
+      <c r="G66" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" t="s">
+        <v>448</v>
+      </c>
+      <c r="J66" t="s">
+        <v>443</v>
+      </c>
+      <c r="K66" t="s">
+        <v>449</v>
+      </c>
+      <c r="L66" t="s">
+        <v>450</v>
+      </c>
+      <c r="M66" t="n">
+        <v>3</v>
+      </c>
+      <c r="N66" t="s">
+        <v>439</v>
+      </c>
+      <c r="O66" t="s">
+        <v>129</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="s"/>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>39832</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" t="s">
+        <v>451</v>
+      </c>
+      <c r="G67" t="s">
+        <v>45</v>
+      </c>
+      <c r="H67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" t="s">
+        <v>452</v>
+      </c>
+      <c r="J67" t="s">
+        <v>453</v>
+      </c>
+      <c r="K67" t="s">
+        <v>454</v>
+      </c>
+      <c r="L67" t="s">
+        <v>455</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s"/>
+      <c r="O67" t="s"/>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>39832</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s">
+        <v>456</v>
+      </c>
+      <c r="G68" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" t="s">
+        <v>46</v>
+      </c>
+      <c r="I68" t="s">
+        <v>457</v>
+      </c>
+      <c r="J68" t="s">
+        <v>458</v>
+      </c>
+      <c r="K68" t="s">
+        <v>459</v>
+      </c>
+      <c r="L68" t="s">
+        <v>460</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>461</v>
+      </c>
+      <c r="O68" t="s">
+        <v>90</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>462</v>
+      </c>
+      <c r="X68" t="s">
+        <v>463</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>39832</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" t="s">
+        <v>465</v>
+      </c>
+      <c r="G69" t="s">
+        <v>45</v>
+      </c>
+      <c r="H69" t="s">
+        <v>46</v>
+      </c>
+      <c r="I69" t="s">
+        <v>466</v>
+      </c>
+      <c r="J69" t="s">
+        <v>467</v>
+      </c>
+      <c r="K69" t="s">
+        <v>468</v>
+      </c>
+      <c r="L69" t="s">
+        <v>469</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" t="s">
+        <v>461</v>
+      </c>
+      <c r="O69" t="s">
+        <v>52</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="s"/>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>39832</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>43</v>
+      </c>
+      <c r="F70" t="s">
+        <v>471</v>
+      </c>
+      <c r="G70" t="s">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s">
+        <v>46</v>
+      </c>
+      <c r="I70" t="s">
+        <v>472</v>
+      </c>
+      <c r="J70" t="s">
+        <v>473</v>
+      </c>
+      <c r="K70" t="s">
+        <v>474</v>
+      </c>
+      <c r="L70" t="s">
+        <v>475</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>461</v>
+      </c>
+      <c r="O70" t="s">
+        <v>58</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="s"/>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>476</v>
+      </c>
+      <c r="X70" t="s">
+        <v>463</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>39832</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" t="s">
+        <v>478</v>
+      </c>
+      <c r="G71" t="s">
+        <v>45</v>
+      </c>
+      <c r="H71" t="s">
+        <v>46</v>
+      </c>
+      <c r="I71" t="s">
+        <v>479</v>
+      </c>
+      <c r="J71" t="s">
+        <v>480</v>
+      </c>
+      <c r="K71" t="s">
+        <v>481</v>
+      </c>
+      <c r="L71" t="s">
+        <v>482</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>483</v>
+      </c>
+      <c r="O71" t="s">
+        <v>90</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>476</v>
+      </c>
+      <c r="X71" t="s">
+        <v>463</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>39832</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72" t="s">
+        <v>485</v>
+      </c>
+      <c r="G72" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" t="s">
+        <v>46</v>
+      </c>
+      <c r="I72" t="s">
+        <v>486</v>
+      </c>
+      <c r="J72" t="s">
+        <v>487</v>
+      </c>
+      <c r="K72" t="s">
+        <v>488</v>
+      </c>
+      <c r="L72" t="s">
+        <v>489</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>483</v>
+      </c>
+      <c r="O72" t="s">
+        <v>90</v>
+      </c>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>476</v>
+      </c>
+      <c r="X72" t="s">
+        <v>463</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>39832</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>43</v>
+      </c>
+      <c r="F73" t="s">
+        <v>491</v>
+      </c>
+      <c r="G73" t="s">
+        <v>45</v>
+      </c>
+      <c r="H73" t="s">
+        <v>46</v>
+      </c>
+      <c r="I73" t="s">
+        <v>492</v>
+      </c>
+      <c r="J73" t="s">
+        <v>493</v>
+      </c>
+      <c r="K73" t="s">
+        <v>494</v>
+      </c>
+      <c r="L73" t="s">
+        <v>495</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>483</v>
+      </c>
+      <c r="O73" t="s">
+        <v>90</v>
+      </c>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="s"/>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>476</v>
+      </c>
+      <c r="X73" t="s">
+        <v>463</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>39832</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>43</v>
+      </c>
+      <c r="F74" t="s">
+        <v>497</v>
+      </c>
+      <c r="G74" t="s">
+        <v>45</v>
+      </c>
+      <c r="H74" t="s">
+        <v>46</v>
+      </c>
+      <c r="I74" t="s">
+        <v>498</v>
+      </c>
+      <c r="J74" t="s">
+        <v>499</v>
+      </c>
+      <c r="K74" t="s">
+        <v>500</v>
+      </c>
+      <c r="L74" t="s">
+        <v>501</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="N74" t="s">
+        <v>502</v>
+      </c>
+      <c r="O74" t="s">
+        <v>52</v>
+      </c>
+      <c r="P74" t="s"/>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="s"/>
+      <c r="S74" t="s"/>
+      <c r="T74" t="s"/>
+      <c r="U74" t="s"/>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>503</v>
+      </c>
+      <c r="X74" t="s">
+        <v>504</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>39832</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>43</v>
+      </c>
+      <c r="F75" t="s">
+        <v>506</v>
+      </c>
+      <c r="G75" t="s">
+        <v>45</v>
+      </c>
+      <c r="H75" t="s">
+        <v>46</v>
+      </c>
+      <c r="I75" t="s">
+        <v>507</v>
+      </c>
+      <c r="J75" t="s">
+        <v>508</v>
+      </c>
+      <c r="K75" t="s">
+        <v>509</v>
+      </c>
+      <c r="L75" t="s">
+        <v>510</v>
+      </c>
+      <c r="M75" t="n">
+        <v>3</v>
+      </c>
+      <c r="N75" t="s">
+        <v>502</v>
+      </c>
+      <c r="O75" t="s">
+        <v>71</v>
+      </c>
+      <c r="P75" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>3</v>
+      </c>
+      <c r="R75" t="n">
+        <v>3</v>
+      </c>
+      <c r="S75" t="n">
+        <v>3</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>511</v>
+      </c>
+      <c r="X75" t="s">
+        <v>512</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>39832</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>43</v>
+      </c>
+      <c r="F76" t="s">
+        <v>514</v>
+      </c>
+      <c r="G76" t="s">
+        <v>45</v>
+      </c>
+      <c r="H76" t="s">
+        <v>46</v>
+      </c>
+      <c r="I76" t="s">
+        <v>515</v>
+      </c>
+      <c r="J76" t="s">
+        <v>516</v>
+      </c>
+      <c r="K76" t="s">
+        <v>517</v>
+      </c>
+      <c r="L76" t="s">
+        <v>518</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>519</v>
+      </c>
+      <c r="O76" t="s">
+        <v>71</v>
+      </c>
+      <c r="P76" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>4</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>4</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>476</v>
+      </c>
+      <c r="X76" t="s">
+        <v>463</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>39832</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>43</v>
+      </c>
+      <c r="F77" t="s">
+        <v>521</v>
+      </c>
+      <c r="G77" t="s">
+        <v>45</v>
+      </c>
+      <c r="H77" t="s">
+        <v>46</v>
+      </c>
+      <c r="I77" t="s">
+        <v>522</v>
+      </c>
+      <c r="J77" t="s">
+        <v>523</v>
+      </c>
+      <c r="K77" t="s">
+        <v>524</v>
+      </c>
+      <c r="L77" t="s">
+        <v>525</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>526</v>
+      </c>
+      <c r="O77" t="s">
+        <v>71</v>
+      </c>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>4</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>4</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>476</v>
+      </c>
+      <c r="X77" t="s">
+        <v>463</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>39832</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>43</v>
+      </c>
+      <c r="F78" t="s">
+        <v>528</v>
+      </c>
+      <c r="G78" t="s">
+        <v>45</v>
+      </c>
+      <c r="H78" t="s">
+        <v>46</v>
+      </c>
+      <c r="I78" t="s">
+        <v>529</v>
+      </c>
+      <c r="J78" t="s">
+        <v>530</v>
+      </c>
+      <c r="K78" t="s">
+        <v>531</v>
+      </c>
+      <c r="L78" t="s">
+        <v>532</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>533</v>
+      </c>
+      <c r="O78" t="s">
+        <v>129</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>476</v>
+      </c>
+      <c r="X78" t="s">
+        <v>463</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>534</v>
       </c>
     </row>
   </sheetData>
